--- a/Container/DmExcel.xlsx
+++ b/Container/DmExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Dropbox\Lele\Rpg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svalv\Dropbox\Lele\Rpg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FD003C-8080-4B2A-8625-AF3548CB4D50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE064003-0882-4FD2-B437-62B34003FEB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" tabRatio="888" firstSheet="3" activeTab="12" xr2:uid="{1A6A4D4C-A6DA-41C8-BFA6-2573AF2854E2}"/>
+    <workbookView xWindow="-57720" yWindow="7455" windowWidth="29040" windowHeight="15840" tabRatio="888" activeTab="8" xr2:uid="{1A6A4D4C-A6DA-41C8-BFA6-2573AF2854E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Handelssystem" sheetId="14" r:id="rId1"/>
@@ -21,11 +21,12 @@
     <sheet name="Items" sheetId="6" r:id="rId6"/>
     <sheet name="Kampf" sheetId="12" r:id="rId7"/>
     <sheet name="Instrumente" sheetId="13" r:id="rId8"/>
-    <sheet name="Gedanken" sheetId="4" r:id="rId9"/>
-    <sheet name="Handwerk" sheetId="9" r:id="rId10"/>
-    <sheet name="Währung" sheetId="3" r:id="rId11"/>
-    <sheet name="Attribute_concept" sheetId="2" r:id="rId12"/>
-    <sheet name="Race_Start" sheetId="1" r:id="rId13"/>
+    <sheet name="Klima" sheetId="16" r:id="rId9"/>
+    <sheet name="Gedanken" sheetId="4" r:id="rId10"/>
+    <sheet name="Handwerk" sheetId="9" r:id="rId11"/>
+    <sheet name="Währung" sheetId="3" r:id="rId12"/>
+    <sheet name="Attribute_concept" sheetId="2" r:id="rId13"/>
+    <sheet name="Race_Start" sheetId="1" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="889">
   <si>
     <t>Handelsgut</t>
   </si>
@@ -515,6 +516,24 @@
     <t>Groß</t>
   </si>
   <si>
+    <t>Achtung: Range einschätzungen immer vom Schwächeren Skill aus.</t>
+  </si>
+  <si>
+    <t>Skill 10/20</t>
+  </si>
+  <si>
+    <t>Skill 30/40</t>
+  </si>
+  <si>
+    <t>Skill 50/60</t>
+  </si>
+  <si>
+    <t>Skill 70/80</t>
+  </si>
+  <si>
+    <t>Skill 90/100</t>
+  </si>
+  <si>
     <t>Stats</t>
   </si>
   <si>
@@ -707,24 +726,6 @@
     <t>Fight, wenn im rudel</t>
   </si>
   <si>
-    <t>Achtung: Range einschätzungen immer vom Schwächeren Skill aus.</t>
-  </si>
-  <si>
-    <t>Skill 10/20</t>
-  </si>
-  <si>
-    <t>Skill 30/40</t>
-  </si>
-  <si>
-    <t>Skill 50/60</t>
-  </si>
-  <si>
-    <t>Skill 70/80</t>
-  </si>
-  <si>
-    <t>Skill 90/100</t>
-  </si>
-  <si>
     <t>Flaschen</t>
   </si>
   <si>
@@ -1868,27 +1869,6 @@
     <t>Target</t>
   </si>
   <si>
-    <t>Target, AoE/3</t>
-  </si>
-  <si>
-    <t>Target, AoE/4</t>
-  </si>
-  <si>
-    <t>Target, AoE/5</t>
-  </si>
-  <si>
-    <t>Target, AoE/6</t>
-  </si>
-  <si>
-    <t>Target, AoE/7</t>
-  </si>
-  <si>
-    <t>Target, AoE/8</t>
-  </si>
-  <si>
-    <t>Target, AoE/9</t>
-  </si>
-  <si>
     <t>Bonus Round</t>
   </si>
   <si>
@@ -1943,57 +1923,12 @@
     <t xml:space="preserve">Gedanken </t>
   </si>
   <si>
-    <t>Click rule</t>
-  </si>
-  <si>
     <t>Save: threshold normalerweise 3, anzahl an würfeln wird verringert,bzw threshold hoch je öfter gleicher save (z.b. für alle 5 kilo -1 auf physical saves</t>
   </si>
   <si>
-    <t>Waffengewicht</t>
-  </si>
-  <si>
-    <t>alle 4km 1 ausdauersave</t>
-  </si>
-  <si>
-    <t>waffenwerte</t>
-  </si>
-  <si>
-    <t>"+50%"</t>
-  </si>
-  <si>
-    <t>Lager: Zeltlager, dient zur erholung etc, mögl target für banditen</t>
-  </si>
-  <si>
-    <t>ccrand:</t>
-  </si>
-  <si>
-    <t>geldsystem, gewicht anzahl zeug</t>
-  </si>
-  <si>
-    <t>Traglast: (40kg bei Str 10) 4kg*Stärke</t>
-  </si>
-  <si>
     <t>Munititon</t>
   </si>
   <si>
-    <t>intimidation vs Insight mit Expiriance</t>
-  </si>
-  <si>
-    <t>TOXI-Saves</t>
-  </si>
-  <si>
-    <t>Prozentuelle Zustandsthresholds /label die mit schaden scalen</t>
-  </si>
-  <si>
-    <t>To-DO</t>
-  </si>
-  <si>
-    <t>guter schlaf?</t>
-  </si>
-  <si>
-    <t>running?</t>
-  </si>
-  <si>
     <t>Lore Buffs Instrumente</t>
   </si>
   <si>
@@ -2102,9 +2037,6 @@
     <t>Reparieren</t>
   </si>
   <si>
-    <t>Maintanence_camp_thres</t>
-  </si>
-  <si>
     <t>Repair_threshold</t>
   </si>
   <si>
@@ -2276,12 +2208,18 @@
     <t>Int</t>
   </si>
   <si>
+    <t>Inst</t>
+  </si>
+  <si>
     <t>12-14</t>
   </si>
   <si>
     <t>40-60</t>
   </si>
   <si>
+    <t>Instinct</t>
+  </si>
+  <si>
     <t>Ranged</t>
   </si>
   <si>
@@ -2294,7 +2232,7 @@
     <t>60-80</t>
   </si>
   <si>
-    <t>throwing</t>
+    <t>Throwing</t>
   </si>
   <si>
     <t>16-18</t>
@@ -2378,7 +2316,7 @@
     <t>Intimidation</t>
   </si>
   <si>
-    <t>(Phy*2</t>
+    <t>(Phy*2+</t>
   </si>
   <si>
     <t xml:space="preserve">Swimming </t>
@@ -2399,6 +2337,9 @@
     <t>Animal Handling</t>
   </si>
   <si>
+    <t>Survival</t>
+  </si>
+  <si>
     <t>Perception</t>
   </si>
   <si>
@@ -2516,19 +2457,271 @@
     <t>Kaiserlich 4</t>
   </si>
   <si>
-    <t>Instinct</t>
-  </si>
-  <si>
-    <t>Inst</t>
-  </si>
-  <si>
-    <t>survival</t>
+    <t>click rule</t>
+  </si>
+  <si>
+    <t>Bilder Copyright</t>
+  </si>
+  <si>
+    <t>THRESHOLDS</t>
+  </si>
+  <si>
+    <t>W10SK30</t>
+  </si>
+  <si>
+    <t>W20SK100</t>
+  </si>
+  <si>
+    <t>W12SK35</t>
+  </si>
+  <si>
+    <t>W14SK50</t>
+  </si>
+  <si>
+    <t>W12SK40</t>
+  </si>
+  <si>
+    <t>W15SK60</t>
+  </si>
+  <si>
+    <t>W16SK70</t>
+  </si>
+  <si>
+    <t>W17SK70</t>
+  </si>
+  <si>
+    <t>W19SK90</t>
+  </si>
+  <si>
+    <t>W10SK25</t>
+  </si>
+  <si>
+    <t>W12SK30</t>
+  </si>
+  <si>
+    <t>W17SK75</t>
+  </si>
+  <si>
+    <t>W13SK45</t>
+  </si>
+  <si>
+    <t>W14SK55</t>
+  </si>
+  <si>
+    <t>W14SK45</t>
+  </si>
+  <si>
+    <t>W18SK85</t>
+  </si>
+  <si>
+    <t>W18SK70</t>
+  </si>
+  <si>
+    <t>W16SK60</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Temperatur Mean</t>
+  </si>
+  <si>
+    <t>Temperatur SD</t>
+  </si>
+  <si>
+    <t>Checkline</t>
+  </si>
+  <si>
+    <t>Nebelhain</t>
+  </si>
+  <si>
+    <t>Silva Nacia</t>
+  </si>
+  <si>
+    <t>Dunstspitzen</t>
+  </si>
+  <si>
+    <t>Middenland</t>
+  </si>
+  <si>
+    <t>Himmelsspitzen</t>
+  </si>
+  <si>
+    <t>Vulkannähe</t>
+  </si>
+  <si>
+    <t>Eid' Rah Kari</t>
+  </si>
+  <si>
+    <t>Bermatal</t>
+  </si>
+  <si>
+    <t>Eldria</t>
+  </si>
+  <si>
+    <t>Südmeer</t>
+  </si>
+  <si>
+    <t>Nordmeer</t>
+  </si>
+  <si>
+    <t>Ende der Welt</t>
+  </si>
+  <si>
+    <t>Eid' Tanis</t>
+  </si>
+  <si>
+    <t>Wurmfall</t>
+  </si>
+  <si>
+    <t>Eisenrote Wüste</t>
+  </si>
+  <si>
+    <t>Nebel</t>
+  </si>
+  <si>
+    <t>Starke Wolken</t>
+  </si>
+  <si>
+    <t>Regen</t>
+  </si>
+  <si>
+    <t>Gewitter</t>
+  </si>
+  <si>
+    <t>Sturm</t>
+  </si>
+  <si>
+    <t>Hagel</t>
+  </si>
+  <si>
+    <t>Sandsturm</t>
+  </si>
+  <si>
+    <t>Sonnenschein</t>
+  </si>
+  <si>
+    <t>Wolken/Trüb</t>
+  </si>
+  <si>
+    <t>Stabilität</t>
+  </si>
+  <si>
+    <t>Wolken/Sonne</t>
+  </si>
+  <si>
+    <t>Schneefall</t>
+  </si>
+  <si>
+    <t>Schneesturm</t>
+  </si>
+  <si>
+    <t>Frost</t>
+  </si>
+  <si>
+    <t>Jahreszeit</t>
+  </si>
+  <si>
+    <t>Sommer</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Herbst</t>
+  </si>
+  <si>
+    <t>Frühling</t>
+  </si>
+  <si>
+    <t>Windig</t>
+  </si>
+  <si>
+    <t>Starker Wind</t>
+  </si>
+  <si>
+    <t>Vulkanaktivität</t>
+  </si>
+  <si>
+    <t>Große Hitze</t>
+  </si>
+  <si>
+    <t>Nieselregen</t>
+  </si>
+  <si>
+    <t>LuftfeuchtigkeitMean</t>
+  </si>
+  <si>
+    <t>LuftfeuchtigkeitBar</t>
+  </si>
+  <si>
+    <t>Polen Urwald</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>falklands</t>
+  </si>
+  <si>
+    <t>Alpin</t>
+  </si>
+  <si>
+    <t>Ukraine kontinental</t>
+  </si>
+  <si>
+    <t>Tundra</t>
+  </si>
+  <si>
+    <t>finnisch</t>
+  </si>
+  <si>
+    <t>himalaya</t>
+  </si>
+  <si>
+    <t>ficcend heißz</t>
+  </si>
+  <si>
+    <t>Ägyptische steppe</t>
+  </si>
+  <si>
+    <t>Israel/syria</t>
+  </si>
+  <si>
+    <t>Skandinavien</t>
+  </si>
+  <si>
+    <t>Süddeutschland/Norditalien</t>
+  </si>
+  <si>
+    <t>Commonwealth</t>
+  </si>
+  <si>
+    <t>Pazifisch</t>
+  </si>
+  <si>
+    <t>Atlantisch</t>
+  </si>
+  <si>
+    <t>Arktis</t>
+  </si>
+  <si>
+    <t>Süditalien</t>
+  </si>
+  <si>
+    <t>Vulkanshit/Sandstürme etc</t>
+  </si>
+  <si>
+    <t>Geysire/regelmäßige Anderung von Oasen durch Vulkanaktivität/ Brennende wüste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3063,7 +3256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3096,7 +3289,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3191,6 +3383,8 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -5659,82 +5853,82 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.578125" customWidth="1"/>
+    <col min="2" max="2" width="14.578125" customWidth="1"/>
+    <col min="3" max="3" width="5.41796875" customWidth="1"/>
+    <col min="4" max="4" width="6.68359375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.578125" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.578125" customWidth="1"/>
+    <col min="10" max="10" width="19.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="36" customFormat="1" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:13" s="35" customFormat="1" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="41" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="38">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="37">
         <v>1</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="38">
         <v>11</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -5744,24 +5938,24 @@
       <c r="C3" s="3">
         <v>2000</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="38">
         <v>2</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
       <c r="L3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -5771,29 +5965,29 @@
       <c r="C4" s="3">
         <v>800</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="38">
         <v>3</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="38">
         <v>10</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -5803,31 +5997,31 @@
       <c r="C5" s="3">
         <v>1200</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="38">
         <v>4</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="38">
         <v>7</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="38" t="s">
         <v>27</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -5837,31 +6031,31 @@
       <c r="C6" s="5">
         <v>1400</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="38">
         <v>5</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="38">
         <v>10</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="38" t="s">
         <v>33</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -5871,34 +6065,34 @@
       <c r="C7" s="5">
         <v>1500</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="38">
         <v>6</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="38">
         <v>11</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="J7" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="K7" s="33" t="s">
         <v>40</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -5908,31 +6102,31 @@
       <c r="C8" s="5">
         <v>1400</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="38">
         <v>7</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="38">
         <v>10</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="38" t="s">
         <v>23</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -5942,31 +6136,31 @@
       <c r="C9" s="5">
         <v>1600</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="38">
         <v>8</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="38">
         <v>9</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="J9" s="38" t="s">
         <v>46</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -5976,61 +6170,61 @@
       <c r="C10" s="5">
         <v>1200</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="38">
         <v>9</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="38">
         <v>9</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="38" t="s">
         <v>51</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="39">
+      <c r="D11" s="38">
         <v>10</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="38">
         <v>10</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="39" t="s">
+      <c r="J11" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="34" t="s">
+      <c r="K11" s="33" t="s">
         <v>40</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -6040,31 +6234,31 @@
       <c r="C12" s="5">
         <v>1600</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="38">
         <v>11</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="38">
         <v>8</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="I12" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="J12" s="39" t="s">
+      <c r="J12" s="38" t="s">
         <v>61</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>62</v>
       </c>
@@ -6074,21 +6268,21 @@
       <c r="C13" s="5">
         <v>1700</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="38">
         <v>12</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>63</v>
       </c>
@@ -6098,29 +6292,29 @@
       <c r="C14" s="5">
         <v>3500</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="38">
         <v>13</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="38">
         <v>8</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="39" t="s">
+      <c r="J14" s="38" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>68</v>
       </c>
@@ -6130,29 +6324,29 @@
       <c r="C15" s="5">
         <v>3000</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="38">
         <v>14</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="38">
         <v>7</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="I15" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="39" t="s">
+      <c r="J15" s="38" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -6162,29 +6356,29 @@
       <c r="C16" s="5">
         <v>3200</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="38">
         <v>15</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="38">
         <v>13</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="39" t="s">
+      <c r="I16" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="J16" s="39" t="s">
+      <c r="J16" s="38" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -6194,192 +6388,192 @@
       <c r="C17" s="5">
         <v>2500</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="38">
         <v>16</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="38">
         <v>8</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="39" t="s">
+      <c r="H17" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="I17" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="J17" s="39" t="s">
+      <c r="J17" s="38" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="39">
+      <c r="D18" s="38">
         <v>17</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="38">
         <v>7</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="39" t="s">
+      <c r="H18" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="39" t="s">
+      <c r="I18" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="J18" s="39" t="s">
+      <c r="J18" s="38" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="39">
+      <c r="D19" s="38">
         <v>18</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="38">
         <v>9</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="J19" s="39" t="s">
+      <c r="J19" s="38" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="39">
+      <c r="D20" s="38">
         <v>19</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="38">
         <v>15</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="G20" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="39" t="s">
+      <c r="H20" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="39" t="s">
+      <c r="I20" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="J20" s="39" t="s">
+      <c r="J20" s="38" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="39">
+      <c r="D21" s="38">
         <v>20</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="38">
         <v>10</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="H21" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="I21" s="39" t="s">
+      <c r="I21" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="J21" s="39" t="s">
+      <c r="J21" s="38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="39">
+      <c r="D22" s="38">
         <v>21</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="38">
         <v>8</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="H22" s="39" t="s">
+      <c r="H22" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="39" t="s">
+      <c r="I22" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="39" t="s">
+      <c r="J22" s="38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="39">
+      <c r="D23" s="38">
         <v>22</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="47">
+      <c r="D24" s="46">
         <v>23</v>
       </c>
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="47">
+      <c r="F24" s="46">
         <v>8</v>
       </c>
-      <c r="G24" s="47" t="s">
+      <c r="G24" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="47" t="s">
+      <c r="H24" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="47" t="s">
+      <c r="I24" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="J24" s="47" t="s">
+      <c r="J24" s="46" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6390,91 +6584,374 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80799C3C-E2DF-4B66-A301-212B3B5168AC}">
-  <dimension ref="A1:R30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA0C063-20D4-45BB-9BD3-9FD62F3F658C}">
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:N8"/>
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="26.15625" customWidth="1"/>
+    <col min="2" max="2" width="22.26171875" style="47" customWidth="1"/>
+    <col min="3" max="3" width="3.578125" customWidth="1"/>
+    <col min="17" max="17" width="42" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>650</v>
+        <v>623</v>
+      </c>
+      <c r="D1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3"/>
+      <c r="D3" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>625</v>
+      </c>
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="35"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="35"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="1:19" ht="15.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>627</v>
+      </c>
+      <c r="B21" s="35"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="1:19" ht="21.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="35"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="35"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="35"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+    </row>
+    <row r="25" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="35"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="1:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="35"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="1:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="35"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="1:19" ht="22.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="35"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="1:19" ht="25.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="35"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="1:19" ht="56.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="35"/>
+      <c r="C30" s="34"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33" spans="11:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34" spans="11:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="11:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+    </row>
+    <row r="36" spans="11:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+    </row>
+    <row r="37" spans="11:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80799C3C-E2DF-4B66-A301-212B3B5168AC}">
+  <dimension ref="A1:T30"/>
+  <sheetViews>
+    <sheetView topLeftCell="I18" workbookViewId="0">
+      <selection activeCell="T37" sqref="T37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="14" max="14" width="20.41796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>628</v>
       </c>
       <c r="G1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>652</v>
+        <v>630</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>653</v>
+        <v>631</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>654</v>
+        <v>632</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>655</v>
+        <v>633</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>656</v>
+        <v>634</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>657</v>
+        <v>635</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>658</v>
+        <v>636</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>411</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>659</v>
+        <v>637</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>414</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>660</v>
+        <v>638</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="G4" s="4" t="s">
-        <v>662</v>
+        <v>640</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>663</v>
+        <v>641</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>664</v>
+        <v>642</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>663</v>
+        <v>641</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>663</v>
+        <v>641</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>663</v>
+        <v>641</v>
       </c>
       <c r="N4" s="4">
         <v>30</v>
       </c>
       <c r="O4" s="4">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="P4" s="4">
         <f>50*30</f>
@@ -6487,35 +6964,38 @@
         <f>50*120</f>
         <v>6000</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="G5" s="4" t="s">
-        <v>666</v>
+        <v>644</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>667</v>
+        <v>645</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>668</v>
+        <v>646</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>669</v>
+        <v>647</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>667</v>
+        <v>645</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>667</v>
+        <v>645</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>667</v>
+        <v>645</v>
       </c>
       <c r="N5" s="4">
         <f>42</f>
         <v>42</v>
       </c>
       <c r="O5" s="4">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P5" s="4">
         <f>50*135</f>
@@ -6528,34 +7008,37 @@
         <f>50*540</f>
         <v>27000</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="G6" s="4" t="s">
-        <v>670</v>
+        <v>648</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>671</v>
+        <v>649</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>672</v>
+        <v>650</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>673</v>
+        <v>651</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>671</v>
+        <v>649</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>671</v>
+        <v>649</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>671</v>
+        <v>649</v>
       </c>
       <c r="N6" s="4">
         <v>52</v>
       </c>
       <c r="O6" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P6" s="4">
         <f>50*540</f>
@@ -6568,38 +7051,41 @@
         <f>50*2160</f>
         <v>108000</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T6" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>674</v>
+        <v>652</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>675</v>
+        <v>653</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>676</v>
+        <v>654</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>677</v>
+        <v>655</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>678</v>
+        <v>656</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>676</v>
+        <v>654</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>676</v>
+        <v>654</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>676</v>
+        <v>654</v>
       </c>
       <c r="N7" s="4">
         <f>42+21</f>
         <v>63</v>
       </c>
       <c r="O7" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P7" s="4">
         <f>50*1800</f>
@@ -6612,391 +7098,391 @@
         <f>50*7200</f>
         <v>360000</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T7" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="G8" s="4" t="s">
-        <v>679</v>
+        <v>657</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>681</v>
+        <v>659</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>682</v>
+        <v>660</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
       <c r="N8" s="4">
         <v>75</v>
       </c>
       <c r="O8" s="4">
-        <v>20</v>
-      </c>
-      <c r="P8" s="4">
-        <f>50*3600</f>
-        <v>180000</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>85</v>
-      </c>
-      <c r="R8" s="6">
-        <f>50*14400</f>
-        <v>720000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q8" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="R8" s="114" t="s">
+        <v>458</v>
+      </c>
+      <c r="T8" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="G10" s="4" t="s">
-        <v>684</v>
+        <v>662</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>654</v>
+        <v>632</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>655</v>
+        <v>633</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>656</v>
+        <v>634</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>657</v>
+        <v>635</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>658</v>
+        <v>636</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>411</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>685</v>
+        <v>663</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>688</v>
+        <v>665</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>662</v>
+        <v>640</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>663</v>
+        <v>641</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>664</v>
+        <v>642</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>663</v>
+        <v>641</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>663</v>
+        <v>641</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>663</v>
+        <v>641</v>
       </c>
       <c r="N11" s="6">
-        <v>1</v>
-      </c>
-      <c r="O11" s="6">
-        <v>1</v>
-      </c>
-      <c r="P11" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="O11" s="4">
         <f>50*30</f>
         <v>1500</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R11" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="G12" s="4" t="s">
-        <v>666</v>
+        <v>644</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>667</v>
+        <v>645</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>668</v>
+        <v>646</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>669</v>
+        <v>647</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>667</v>
+        <v>645</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>667</v>
+        <v>645</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>667</v>
+        <v>645</v>
       </c>
       <c r="N12" s="6">
-        <v>3</v>
-      </c>
-      <c r="O12" s="6">
-        <v>2</v>
-      </c>
-      <c r="P12" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="O12" s="4">
         <f>50*135</f>
         <v>6750</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R12" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="G13" s="4" t="s">
-        <v>670</v>
+        <v>648</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>671</v>
+        <v>649</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>672</v>
+        <v>650</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>673</v>
+        <v>651</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>671</v>
+        <v>649</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>671</v>
+        <v>649</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>671</v>
+        <v>649</v>
       </c>
       <c r="N13" s="6">
-        <v>5</v>
-      </c>
-      <c r="O13" s="6">
-        <v>3</v>
-      </c>
-      <c r="P13" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="O13" s="4">
         <f>50*540</f>
         <v>27000</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R13" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="G14" s="4" t="s">
-        <v>675</v>
+        <v>653</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>676</v>
+        <v>654</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>677</v>
+        <v>655</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>678</v>
+        <v>656</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>676</v>
+        <v>654</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>676</v>
+        <v>654</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>676</v>
+        <v>654</v>
       </c>
       <c r="N14" s="6">
-        <v>7</v>
-      </c>
-      <c r="O14" s="6">
-        <v>5</v>
-      </c>
-      <c r="P14" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O14" s="4">
         <f>50*1800</f>
         <v>90000</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R14" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="G15" s="4" t="s">
-        <v>679</v>
+        <v>657</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>681</v>
+        <v>659</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>682</v>
+        <v>660</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
       <c r="N15" s="6">
-        <v>10</v>
-      </c>
-      <c r="O15" s="6">
-        <v>10</v>
-      </c>
-      <c r="P15" s="4">
-        <f>50*3600</f>
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="18" spans="7:13" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="R15" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="18" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G18" s="4" t="s">
-        <v>689</v>
+        <v>666</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>654</v>
+        <v>632</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>655</v>
+        <v>633</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>656</v>
+        <v>634</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>657</v>
+        <v>635</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>658</v>
+        <v>636</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="19" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G19" s="4" t="s">
-        <v>662</v>
+        <v>640</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>663</v>
+        <v>641</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>664</v>
+        <v>642</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>663</v>
+        <v>641</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>663</v>
+        <v>641</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="20" spans="7:13" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="20" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G20" s="4" t="s">
-        <v>666</v>
+        <v>644</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>667</v>
+        <v>645</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>668</v>
+        <v>646</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>669</v>
+        <v>647</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>667</v>
+        <v>645</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>667</v>
+        <v>645</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="21" spans="7:13" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="21" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G21" s="4" t="s">
-        <v>670</v>
+        <v>648</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>671</v>
+        <v>649</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>672</v>
+        <v>650</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>673</v>
+        <v>651</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>671</v>
+        <v>649</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>671</v>
+        <v>649</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="22" spans="7:13" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="22" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G22" s="4" t="s">
-        <v>675</v>
+        <v>653</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>676</v>
+        <v>654</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>677</v>
+        <v>655</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>678</v>
+        <v>656</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>676</v>
+        <v>654</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>676</v>
+        <v>654</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="23" spans="7:13" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="23" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G23" s="4" t="s">
-        <v>679</v>
+        <v>657</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>681</v>
+        <v>659</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>682</v>
+        <v>660</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="24" spans="7:13" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="24" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -7004,9 +7490,9 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G25" s="5" t="s">
-        <v>690</v>
+        <v>667</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -7014,63 +7500,63 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="27" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G27" t="s">
-        <v>691</v>
+        <v>668</v>
       </c>
       <c r="H27" t="s">
-        <v>692</v>
+        <v>669</v>
       </c>
       <c r="I27" t="s">
-        <v>693</v>
+        <v>670</v>
       </c>
       <c r="J27" t="s">
-        <v>694</v>
+        <v>671</v>
       </c>
       <c r="K27" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="28" spans="7:13" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="28" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G28" t="s">
-        <v>696</v>
+        <v>673</v>
       </c>
       <c r="H28" t="s">
-        <v>697</v>
+        <v>674</v>
       </c>
       <c r="I28" t="s">
-        <v>698</v>
+        <v>675</v>
       </c>
       <c r="J28" t="s">
-        <v>699</v>
+        <v>676</v>
       </c>
       <c r="K28" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="29" spans="7:13" x14ac:dyDescent="0.25">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="29" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G29" t="s">
-        <v>664</v>
+        <v>642</v>
       </c>
       <c r="H29" t="s">
-        <v>668</v>
+        <v>646</v>
       </c>
       <c r="I29" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="30" spans="7:13" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="30" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G30" t="s">
-        <v>701</v>
+        <v>678</v>
       </c>
       <c r="H30" t="s">
-        <v>702</v>
+        <v>679</v>
       </c>
       <c r="I30" t="s">
-        <v>703</v>
+        <v>680</v>
       </c>
       <c r="J30" t="s">
-        <v>704</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -7078,7 +7564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848F56DC-542E-4660-A062-3E64C0A13969}">
   <dimension ref="A1:N16"/>
   <sheetViews>
@@ -7086,59 +7572,59 @@
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.578125" customWidth="1"/>
+    <col min="2" max="2" width="16.68359375" customWidth="1"/>
+    <col min="4" max="4" width="16.26171875" customWidth="1"/>
+    <col min="9" max="10" width="11.41796875" customWidth="1"/>
+    <col min="11" max="11" width="16.15625" customWidth="1"/>
+    <col min="12" max="12" width="14.83984375" customWidth="1"/>
+    <col min="13" max="14" width="11.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>705</v>
+        <v>682</v>
       </c>
       <c r="B1" t="s">
-        <v>706</v>
+        <v>683</v>
       </c>
       <c r="C1" t="s">
-        <v>707</v>
+        <v>684</v>
       </c>
       <c r="D1" t="s">
-        <v>708</v>
+        <v>685</v>
       </c>
       <c r="E1" t="s">
-        <v>709</v>
+        <v>686</v>
       </c>
       <c r="F1" t="s">
-        <v>710</v>
+        <v>687</v>
       </c>
       <c r="G1" t="s">
-        <v>711</v>
+        <v>688</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>712</v>
+        <v>689</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>713</v>
+        <v>690</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>714</v>
+        <v>691</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>706</v>
+        <v>683</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>707</v>
+        <v>684</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7161,7 +7647,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>50</v>
       </c>
@@ -7182,14 +7668,14 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>716</v>
+        <v>693</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G8" si="0">E3*30</f>
         <v>30</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>717</v>
+        <v>694</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -7207,7 +7693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>100</v>
       </c>
@@ -7228,14 +7714,14 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>718</v>
+        <v>695</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>719</v>
+        <v>696</v>
       </c>
       <c r="J4" s="2">
         <v>50</v>
@@ -7253,7 +7739,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>500</v>
       </c>
@@ -7274,14 +7760,14 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>720</v>
+        <v>697</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>706</v>
+        <v>683</v>
       </c>
       <c r="J5" s="2">
         <v>2</v>
@@ -7299,7 +7785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>1000</v>
       </c>
@@ -7320,14 +7806,14 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>721</v>
+        <v>698</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>707</v>
+        <v>684</v>
       </c>
       <c r="J6" s="2">
         <v>0.5</v>
@@ -7345,7 +7831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -7366,20 +7852,20 @@
         <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>722</v>
+        <v>699</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>715</v>
+        <v>692</v>
       </c>
       <c r="J7" s="2">
         <v>0.25</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>723</v>
+        <v>700</v>
       </c>
       <c r="L7" s="2">
         <v>0.125</v>
@@ -7391,7 +7877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>5000</v>
       </c>
@@ -7412,66 +7898,66 @@
         <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>724</v>
+        <v>701</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="F10" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="F11" t="s">
-        <v>716</v>
+        <v>693</v>
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G16" si="2">G3*50</f>
         <v>1500</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="F12" t="s">
-        <v>718</v>
+        <v>695</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="F13" t="s">
-        <v>720</v>
+        <v>697</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
         <v>15000</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="F14" t="s">
-        <v>721</v>
+        <v>698</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="F15" t="s">
-        <v>722</v>
+        <v>699</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
         <v>60000</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="F16" t="s">
-        <v>724</v>
+        <v>701</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
@@ -7483,29 +7969,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723969D4-3A37-43D2-9EE2-8C79AD258E11}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.41796875" customWidth="1"/>
+    <col min="3" max="3" width="5.26171875" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="8.83984375" customWidth="1"/>
+    <col min="6" max="6" width="7.26171875" customWidth="1"/>
+    <col min="7" max="7" width="10.15625" customWidth="1"/>
+    <col min="9" max="9" width="17.83984375" customWidth="1"/>
+    <col min="10" max="10" width="2.15625" customWidth="1"/>
+    <col min="11" max="11" width="12.83984375" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -7514,74 +8000,74 @@
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="31"/>
-      <c r="B2" s="103" t="s">
-        <v>725</v>
-      </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="103" t="s">
-        <v>726</v>
-      </c>
-      <c r="E2" s="103" t="s">
-        <v>727</v>
-      </c>
-      <c r="F2" s="103"/>
+      <c r="B2" s="102" t="s">
+        <v>702</v>
+      </c>
+      <c r="C2" s="103"/>
+      <c r="D2" s="102" t="s">
+        <v>703</v>
+      </c>
+      <c r="E2" s="102" t="s">
+        <v>704</v>
+      </c>
+      <c r="F2" s="102"/>
       <c r="G2" s="31"/>
       <c r="H2" s="13" t="s">
-        <v>728</v>
+        <v>705</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13" t="s">
-        <v>729</v>
+        <v>706</v>
       </c>
       <c r="L2" s="13"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="31"/>
-      <c r="B3" s="112" t="s">
-        <v>170</v>
+      <c r="B3" s="111" t="s">
+        <v>176</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="65" t="s">
-        <v>730</v>
-      </c>
-      <c r="E3" s="113" t="s">
-        <v>731</v>
-      </c>
-      <c r="F3" s="67" t="s">
-        <v>732</v>
+      <c r="D3" s="64" t="s">
+        <v>707</v>
+      </c>
+      <c r="E3" s="112" t="s">
+        <v>708</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>709</v>
       </c>
       <c r="G3" s="31"/>
       <c r="H3" s="6" t="s">
-        <v>725</v>
+        <v>702</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>733</v>
+        <v>710</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="6" t="s">
-        <v>734</v>
+        <v>711</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="31"/>
-      <c r="B4" s="105" t="s">
-        <v>171</v>
+      <c r="B4" s="104" t="s">
+        <v>177</v>
       </c>
       <c r="C4" s="31"/>
-      <c r="D4" s="68" t="s">
-        <v>735</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>731</v>
-      </c>
-      <c r="F4" s="71" t="s">
-        <v>732</v>
+      <c r="D4" s="67" t="s">
+        <v>712</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>708</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>709</v>
       </c>
       <c r="G4" s="31"/>
       <c r="H4" s="6"/>
@@ -7590,170 +8076,170 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="31"/>
-      <c r="B5" s="106" t="s">
-        <v>172</v>
+      <c r="B5" s="105" t="s">
+        <v>178</v>
       </c>
       <c r="C5" s="31"/>
-      <c r="D5" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="E5" s="70" t="s">
-        <v>731</v>
-      </c>
-      <c r="F5" s="114"/>
+      <c r="D5" s="67" t="s">
+        <v>713</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>708</v>
+      </c>
+      <c r="F5" s="113"/>
       <c r="G5" s="31"/>
-      <c r="H5" s="52" t="s">
-        <v>737</v>
+      <c r="H5" s="51" t="s">
+        <v>714</v>
       </c>
       <c r="I5" s="6">
         <v>1</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="6" t="s">
-        <v>738</v>
+        <v>715</v>
       </c>
       <c r="L5" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="31"/>
-      <c r="B6" s="107" t="s">
-        <v>176</v>
+      <c r="B6" s="106" t="s">
+        <v>182</v>
       </c>
       <c r="C6" s="31"/>
-      <c r="D6" s="68" t="s">
-        <v>739</v>
+      <c r="D6" s="67" t="s">
+        <v>716</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>731</v>
-      </c>
-      <c r="F6" s="72" t="s">
-        <v>732</v>
+        <v>708</v>
+      </c>
+      <c r="F6" s="71" t="s">
+        <v>709</v>
       </c>
       <c r="G6" s="31"/>
-      <c r="H6" s="52" t="s">
-        <v>740</v>
+      <c r="H6" s="51" t="s">
+        <v>717</v>
       </c>
       <c r="I6" s="6">
         <v>2</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="6" t="s">
-        <v>741</v>
+        <v>718</v>
       </c>
       <c r="L6" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="31"/>
-      <c r="B7" s="108" t="s">
-        <v>173</v>
+      <c r="B7" s="107" t="s">
+        <v>179</v>
       </c>
       <c r="C7" s="31"/>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="67" t="s">
         <v>446</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>742</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>824</v>
+        <v>719</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>720</v>
       </c>
       <c r="G7" s="31"/>
-      <c r="H7" s="52" t="s">
-        <v>743</v>
+      <c r="H7" s="51" t="s">
+        <v>721</v>
       </c>
       <c r="I7" s="6">
         <v>4</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="6" t="s">
-        <v>744</v>
+        <v>722</v>
       </c>
       <c r="L7" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="31"/>
-      <c r="B8" s="109" t="s">
-        <v>823</v>
+      <c r="B8" s="108" t="s">
+        <v>723</v>
       </c>
       <c r="C8" s="31"/>
-      <c r="D8" s="68" t="s">
-        <v>745</v>
-      </c>
-      <c r="E8" s="70" t="s">
-        <v>731</v>
-      </c>
-      <c r="F8" s="72" t="s">
-        <v>746</v>
+      <c r="D8" s="67" t="s">
+        <v>724</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>708</v>
+      </c>
+      <c r="F8" s="71" t="s">
+        <v>725</v>
       </c>
       <c r="G8" s="31"/>
-      <c r="H8" s="52" t="s">
-        <v>747</v>
+      <c r="H8" s="51" t="s">
+        <v>726</v>
       </c>
       <c r="I8" s="6">
         <v>6</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="6" t="s">
-        <v>748</v>
+        <v>727</v>
       </c>
       <c r="L8" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="31"/>
-      <c r="B9" s="110" t="s">
-        <v>174</v>
+      <c r="B9" s="109" t="s">
+        <v>180</v>
       </c>
       <c r="C9" s="31"/>
-      <c r="D9" s="68" t="s">
-        <v>749</v>
+      <c r="D9" s="67" t="s">
+        <v>728</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>731</v>
-      </c>
-      <c r="F9" s="72" t="s">
-        <v>746</v>
+        <v>708</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>725</v>
       </c>
       <c r="G9" s="31"/>
-      <c r="H9" s="52" t="s">
-        <v>750</v>
+      <c r="H9" s="51" t="s">
+        <v>729</v>
       </c>
       <c r="I9" s="6">
         <v>8</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="6" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="L9" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="31"/>
-      <c r="B10" s="111" t="s">
-        <v>752</v>
+      <c r="B10" s="110" t="s">
+        <v>731</v>
       </c>
       <c r="C10" s="31"/>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="74" t="s">
         <v>560</v>
       </c>
-      <c r="E10" s="76" t="s">
-        <v>746</v>
-      </c>
-      <c r="F10" s="77"/>
+      <c r="E10" s="75" t="s">
+        <v>725</v>
+      </c>
+      <c r="F10" s="76"/>
       <c r="G10" s="31"/>
-      <c r="H10" s="52" t="s">
-        <v>753</v>
+      <c r="H10" s="51" t="s">
+        <v>732</v>
       </c>
       <c r="I10" s="6">
         <v>12</v>
@@ -7762,467 +8248,467 @@
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="31"/>
-      <c r="B11" s="102"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="31"/>
-      <c r="D11" s="65" t="s">
-        <v>754</v>
-      </c>
-      <c r="E11" s="66" t="s">
-        <v>731</v>
-      </c>
-      <c r="F11" s="67" t="s">
-        <v>746</v>
+      <c r="D11" s="64" t="s">
+        <v>733</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>708</v>
+      </c>
+      <c r="F11" s="66" t="s">
+        <v>725</v>
       </c>
       <c r="G11" s="31"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="55" t="s">
-        <v>755</v>
-      </c>
-      <c r="L11" s="56"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K11" s="54" t="s">
+        <v>734</v>
+      </c>
+      <c r="L11" s="55"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="31"/>
-      <c r="B12" s="102"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="31"/>
-      <c r="D12" s="68" t="s">
-        <v>756</v>
-      </c>
-      <c r="E12" s="78" t="s">
-        <v>746</v>
-      </c>
-      <c r="F12" s="69"/>
+      <c r="D12" s="67" t="s">
+        <v>735</v>
+      </c>
+      <c r="E12" s="77" t="s">
+        <v>725</v>
+      </c>
+      <c r="F12" s="68"/>
       <c r="G12" s="31"/>
-      <c r="H12" s="52" t="s">
-        <v>180</v>
+      <c r="H12" s="51" t="s">
+        <v>186</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>757</v>
+        <v>736</v>
       </c>
       <c r="J12" s="13"/>
-      <c r="K12" s="57" t="s">
-        <v>758</v>
-      </c>
-      <c r="L12" s="58">
+      <c r="K12" s="56" t="s">
+        <v>737</v>
+      </c>
+      <c r="L12" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="31"/>
-      <c r="B13" s="102"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="68" t="s">
-        <v>759</v>
-      </c>
-      <c r="E13" s="78" t="s">
-        <v>746</v>
-      </c>
-      <c r="F13" s="69"/>
+      <c r="D13" s="67" t="s">
+        <v>738</v>
+      </c>
+      <c r="E13" s="77" t="s">
+        <v>725</v>
+      </c>
+      <c r="F13" s="68"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="52"/>
+      <c r="H13" s="51"/>
       <c r="I13" s="6"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="58"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="56"/>
+      <c r="L13" s="57"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="31"/>
-      <c r="B14" s="102"/>
+      <c r="B14" s="101"/>
       <c r="C14" s="31"/>
-      <c r="D14" s="75" t="s">
-        <v>760</v>
-      </c>
-      <c r="E14" s="76" t="s">
-        <v>746</v>
-      </c>
-      <c r="F14" s="79" t="s">
-        <v>824</v>
+      <c r="D14" s="74" t="s">
+        <v>739</v>
+      </c>
+      <c r="E14" s="75" t="s">
+        <v>725</v>
+      </c>
+      <c r="F14" s="78" t="s">
+        <v>720</v>
       </c>
       <c r="G14" s="31"/>
-      <c r="H14" s="52" t="s">
-        <v>761</v>
-      </c>
-      <c r="I14" s="53">
+      <c r="H14" s="51" t="s">
+        <v>740</v>
+      </c>
+      <c r="I14" s="52">
         <v>0.5</v>
       </c>
       <c r="J14" s="13"/>
-      <c r="K14" s="57" t="s">
-        <v>762</v>
-      </c>
-      <c r="L14" s="58" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K14" s="56" t="s">
+        <v>741</v>
+      </c>
+      <c r="L14" s="57" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="31"/>
-      <c r="B15" s="102"/>
+      <c r="B15" s="101"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="65" t="s">
-        <v>763</v>
-      </c>
-      <c r="E15" s="80" t="s">
-        <v>764</v>
-      </c>
-      <c r="F15" s="81" t="s">
+      <c r="D15" s="64" t="s">
         <v>742</v>
+      </c>
+      <c r="E15" s="79" t="s">
+        <v>743</v>
+      </c>
+      <c r="F15" s="80" t="s">
+        <v>719</v>
       </c>
       <c r="G15" s="31"/>
       <c r="H15" s="6" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
       <c r="I15" s="6">
         <v>1</v>
       </c>
       <c r="J15" s="13"/>
-      <c r="K15" s="57">
+      <c r="K15" s="56">
         <v>5</v>
       </c>
-      <c r="L15" s="58">
+      <c r="L15" s="57">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="31"/>
-      <c r="B16" s="102"/>
+      <c r="B16" s="101"/>
       <c r="C16" s="31"/>
-      <c r="D16" s="68" t="s">
-        <v>766</v>
-      </c>
-      <c r="E16" s="82" t="s">
-        <v>764</v>
-      </c>
-      <c r="F16" s="83"/>
+      <c r="D16" s="67" t="s">
+        <v>745</v>
+      </c>
+      <c r="E16" s="81" t="s">
+        <v>743</v>
+      </c>
+      <c r="F16" s="82"/>
       <c r="G16" s="31"/>
-      <c r="H16" s="52" t="s">
-        <v>767</v>
+      <c r="H16" s="51" t="s">
+        <v>746</v>
       </c>
       <c r="I16" s="6">
         <v>2</v>
       </c>
       <c r="J16" s="13"/>
-      <c r="K16" s="57">
+      <c r="K16" s="56">
         <v>6</v>
       </c>
-      <c r="L16" s="58">
+      <c r="L16" s="57">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="31"/>
-      <c r="B17" s="102"/>
+      <c r="B17" s="101"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="68" t="s">
-        <v>768</v>
-      </c>
-      <c r="E17" s="82" t="s">
-        <v>764</v>
-      </c>
-      <c r="F17" s="83"/>
+      <c r="D17" s="67" t="s">
+        <v>747</v>
+      </c>
+      <c r="E17" s="81" t="s">
+        <v>743</v>
+      </c>
+      <c r="F17" s="82"/>
       <c r="G17" s="31"/>
       <c r="H17" s="6" t="s">
-        <v>769</v>
+        <v>748</v>
       </c>
       <c r="I17" s="6">
         <v>4</v>
       </c>
       <c r="J17" s="13"/>
-      <c r="K17" s="57">
+      <c r="K17" s="56">
         <v>7</v>
       </c>
-      <c r="L17" s="58">
+      <c r="L17" s="57">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="31"/>
-      <c r="B18" s="102"/>
+      <c r="B18" s="101"/>
       <c r="C18" s="31"/>
-      <c r="D18" s="68" t="s">
-        <v>770</v>
+      <c r="D18" s="67" t="s">
+        <v>749</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="F18" s="96" t="s">
-        <v>772</v>
+        <v>750</v>
+      </c>
+      <c r="F18" s="95" t="s">
+        <v>751</v>
       </c>
       <c r="G18" s="31"/>
-      <c r="H18" s="52" t="s">
-        <v>773</v>
+      <c r="H18" s="51" t="s">
+        <v>752</v>
       </c>
       <c r="I18" s="6">
         <v>6</v>
       </c>
       <c r="J18" s="13"/>
-      <c r="K18" s="57">
+      <c r="K18" s="56">
         <v>8</v>
       </c>
-      <c r="L18" s="58">
+      <c r="L18" s="57">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="31"/>
-      <c r="B19" s="102"/>
+      <c r="B19" s="101"/>
       <c r="C19" s="31"/>
-      <c r="D19" s="68" t="s">
-        <v>774</v>
+      <c r="D19" s="67" t="s">
+        <v>753</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>742</v>
-      </c>
-      <c r="F19" s="72" t="s">
-        <v>824</v>
+        <v>719</v>
+      </c>
+      <c r="F19" s="71" t="s">
+        <v>720</v>
       </c>
       <c r="G19" s="31"/>
       <c r="H19" s="6" t="s">
-        <v>775</v>
+        <v>754</v>
       </c>
       <c r="I19" s="6">
         <v>8</v>
       </c>
       <c r="J19" s="13"/>
-      <c r="K19" s="57">
+      <c r="K19" s="56">
         <v>9</v>
       </c>
-      <c r="L19" s="58">
+      <c r="L19" s="57">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="31"/>
-      <c r="B20" s="102"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="31"/>
-      <c r="D20" s="75" t="s">
-        <v>776</v>
-      </c>
-      <c r="E20" s="84" t="s">
-        <v>777</v>
-      </c>
-      <c r="F20" s="85" t="s">
-        <v>772</v>
+      <c r="D20" s="74" t="s">
+        <v>755</v>
+      </c>
+      <c r="E20" s="83" t="s">
+        <v>756</v>
+      </c>
+      <c r="F20" s="84" t="s">
+        <v>751</v>
       </c>
       <c r="G20" s="31"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="57">
+      <c r="K20" s="56">
         <v>10</v>
       </c>
-      <c r="L20" s="58">
+      <c r="L20" s="57">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="31"/>
-      <c r="B21" s="102"/>
+      <c r="B21" s="101"/>
       <c r="C21" s="31"/>
-      <c r="D21" s="65" t="s">
-        <v>778</v>
-      </c>
-      <c r="E21" s="86" t="s">
-        <v>732</v>
-      </c>
-      <c r="F21" s="100"/>
+      <c r="D21" s="64" t="s">
+        <v>757</v>
+      </c>
+      <c r="E21" s="85" t="s">
+        <v>709</v>
+      </c>
+      <c r="F21" s="99"/>
       <c r="G21" s="31"/>
       <c r="H21" s="6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>733</v>
+        <v>710</v>
       </c>
       <c r="J21" s="13"/>
-      <c r="K21" s="57">
+      <c r="K21" s="56">
         <v>11</v>
       </c>
-      <c r="L21" s="58">
+      <c r="L21" s="57">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="31"/>
-      <c r="B22" s="102"/>
+      <c r="B22" s="101"/>
       <c r="C22" s="31"/>
-      <c r="D22" s="75" t="s">
-        <v>779</v>
-      </c>
-      <c r="E22" s="84" t="s">
-        <v>732</v>
-      </c>
-      <c r="F22" s="99"/>
+      <c r="D22" s="74" t="s">
+        <v>758</v>
+      </c>
+      <c r="E22" s="83" t="s">
+        <v>709</v>
+      </c>
+      <c r="F22" s="98"/>
       <c r="G22" s="31"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="13"/>
-      <c r="K22" s="57">
+      <c r="K22" s="56">
         <v>12</v>
       </c>
-      <c r="L22" s="58">
+      <c r="L22" s="57">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="65" t="s">
-        <v>780</v>
-      </c>
-      <c r="E23" s="87" t="s">
-        <v>742</v>
-      </c>
-      <c r="F23" s="88"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E23" s="86" t="s">
+        <v>719</v>
+      </c>
+      <c r="F23" s="87"/>
       <c r="G23" s="31"/>
       <c r="H23" s="6" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
       <c r="I23" s="6">
         <v>1</v>
       </c>
       <c r="J23" s="13"/>
-      <c r="K23" s="57">
+      <c r="K23" s="56">
         <v>13</v>
       </c>
-      <c r="L23" s="58">
+      <c r="L23" s="57">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="31"/>
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
-      <c r="D24" s="68" t="s">
-        <v>781</v>
-      </c>
-      <c r="E24" s="89" t="s">
-        <v>742</v>
-      </c>
-      <c r="F24" s="73"/>
+      <c r="D24" s="67" t="s">
+        <v>760</v>
+      </c>
+      <c r="E24" s="88" t="s">
+        <v>719</v>
+      </c>
+      <c r="F24" s="72"/>
       <c r="G24" s="31"/>
-      <c r="H24" s="52" t="s">
-        <v>740</v>
+      <c r="H24" s="51" t="s">
+        <v>717</v>
       </c>
       <c r="I24" s="6">
         <v>2</v>
       </c>
       <c r="J24" s="13"/>
-      <c r="K24" s="57">
+      <c r="K24" s="56">
         <v>14</v>
       </c>
-      <c r="L24" s="58">
+      <c r="L24" s="57">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="31"/>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
-      <c r="D25" s="75" t="s">
-        <v>782</v>
-      </c>
-      <c r="E25" s="90" t="s">
-        <v>742</v>
-      </c>
-      <c r="F25" s="79" t="s">
-        <v>824</v>
+      <c r="D25" s="74" t="s">
+        <v>761</v>
+      </c>
+      <c r="E25" s="89" t="s">
+        <v>719</v>
+      </c>
+      <c r="F25" s="78" t="s">
+        <v>720</v>
       </c>
       <c r="G25" s="31"/>
-      <c r="H25" s="52" t="s">
-        <v>743</v>
+      <c r="H25" s="51" t="s">
+        <v>721</v>
       </c>
       <c r="I25" s="6">
         <v>3</v>
       </c>
       <c r="J25" s="13"/>
-      <c r="K25" s="57">
+      <c r="K25" s="56">
         <v>15</v>
       </c>
-      <c r="L25" s="58">
+      <c r="L25" s="57">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="31"/>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
-      <c r="D26" s="65" t="s">
-        <v>783</v>
-      </c>
-      <c r="E26" s="91" t="s">
-        <v>824</v>
-      </c>
-      <c r="F26" s="92"/>
+      <c r="D26" s="64" t="s">
+        <v>762</v>
+      </c>
+      <c r="E26" s="90" t="s">
+        <v>720</v>
+      </c>
+      <c r="F26" s="91"/>
       <c r="G26" s="31"/>
-      <c r="H26" s="52" t="s">
-        <v>747</v>
+      <c r="H26" s="51" t="s">
+        <v>726</v>
       </c>
       <c r="I26" s="6">
         <v>4</v>
       </c>
       <c r="J26" s="13"/>
-      <c r="K26" s="57">
+      <c r="K26" s="56">
         <v>16</v>
       </c>
-      <c r="L26" s="58">
+      <c r="L26" s="57">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="31"/>
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
-      <c r="D27" s="68" t="s">
-        <v>825</v>
-      </c>
-      <c r="E27" s="93" t="s">
-        <v>824</v>
-      </c>
-      <c r="F27" s="74"/>
+      <c r="D27" s="67" t="s">
+        <v>763</v>
+      </c>
+      <c r="E27" s="92" t="s">
+        <v>720</v>
+      </c>
+      <c r="F27" s="73"/>
       <c r="G27" s="31"/>
-      <c r="H27" s="52" t="s">
-        <v>750</v>
+      <c r="H27" s="51" t="s">
+        <v>729</v>
       </c>
       <c r="I27" s="6">
         <v>5</v>
       </c>
       <c r="J27" s="13"/>
-      <c r="K27" s="57">
+      <c r="K27" s="56">
         <v>17</v>
       </c>
-      <c r="L27" s="58">
+      <c r="L27" s="57">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="31"/>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
-      <c r="D28" s="75" t="s">
-        <v>784</v>
-      </c>
-      <c r="E28" s="94" t="s">
-        <v>824</v>
-      </c>
-      <c r="F28" s="95"/>
+      <c r="D28" s="74" t="s">
+        <v>764</v>
+      </c>
+      <c r="E28" s="93" t="s">
+        <v>720</v>
+      </c>
+      <c r="F28" s="94"/>
       <c r="G28" s="31"/>
-      <c r="H28" s="52" t="s">
-        <v>753</v>
+      <c r="H28" s="51" t="s">
+        <v>732</v>
       </c>
       <c r="I28" s="6">
         <v>6</v>
       </c>
       <c r="J28" s="13"/>
-      <c r="K28" s="57">
+      <c r="K28" s="56">
         <v>18</v>
       </c>
-      <c r="L28" s="58">
+      <c r="L28" s="57">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
@@ -8230,17 +8716,17 @@
       <c r="E29" s="31"/>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
-      <c r="H29" s="54"/>
+      <c r="H29" s="53"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
-      <c r="K29" s="57">
+      <c r="K29" s="56">
         <v>19</v>
       </c>
-      <c r="L29" s="58">
+      <c r="L29" s="57">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="31"/>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
@@ -8248,17 +8734,17 @@
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
       <c r="G30" s="31"/>
-      <c r="H30" s="54"/>
+      <c r="H30" s="53"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
-      <c r="K30" s="59">
+      <c r="K30" s="58">
         <v>20</v>
       </c>
-      <c r="L30" s="60">
+      <c r="L30" s="59">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="31"/>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
@@ -8267,22 +8753,22 @@
       <c r="F31" s="31"/>
       <c r="G31" s="31"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="G32" s="13"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G33" s="13"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G34" s="13"/>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G35" s="13"/>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G36" s="13"/>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G37" s="13"/>
     </row>
   </sheetData>
@@ -8681,56 +9167,56 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137FE523-0136-4AF8-B94A-B20A836D25AE}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.578125" customWidth="1"/>
+    <col min="6" max="6" width="12.15625" customWidth="1"/>
+    <col min="7" max="7" width="11.83984375" customWidth="1"/>
+    <col min="8" max="8" width="10.83984375" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.83984375" customWidth="1"/>
+    <col min="11" max="11" width="12.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5" t="s">
-        <v>785</v>
+        <v>765</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>791</v>
+        <v>771</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>792</v>
+        <v>772</v>
       </c>
       <c r="L1" s="13"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -8744,9 +9230,9 @@
       <c r="K2" s="5"/>
       <c r="L2" s="13"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -8776,9 +9262,9 @@
       </c>
       <c r="L3" s="13"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -8808,9 +9294,9 @@
       </c>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -8840,9 +9326,9 @@
       </c>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -8872,9 +9358,9 @@
       </c>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -8904,9 +9390,9 @@
       </c>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -8936,9 +9422,9 @@
       </c>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -8968,9 +9454,9 @@
       </c>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -9000,9 +9486,9 @@
       </c>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -9032,9 +9518,9 @@
       </c>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
-        <v>752</v>
+        <v>731</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -9064,7 +9550,7 @@
       </c>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -9078,9 +9564,9 @@
       <c r="K13" s="5"/>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
-        <v>793</v>
+        <v>773</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -9118,7 +9604,7 @@
       </c>
       <c r="L14" s="13"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -9132,148 +9618,148 @@
       <c r="K15" s="5"/>
       <c r="L15" s="13"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
-        <v>794</v>
+        <v>774</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="62">
+      <c r="D16" s="61">
         <v>1</v>
       </c>
-      <c r="E16" s="62">
+      <c r="E16" s="61">
         <v>0.95</v>
       </c>
-      <c r="F16" s="62">
+      <c r="F16" s="61">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G16" s="62">
+      <c r="G16" s="61">
         <v>0.7</v>
       </c>
-      <c r="H16" s="62">
+      <c r="H16" s="61">
         <v>0.8</v>
       </c>
-      <c r="I16" s="62">
+      <c r="I16" s="61">
         <v>1</v>
       </c>
-      <c r="J16" s="62">
+      <c r="J16" s="61">
         <v>0.85</v>
       </c>
-      <c r="K16" s="62">
+      <c r="K16" s="61">
         <v>1.2</v>
       </c>
       <c r="L16" s="13"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="63">
+      <c r="D17" s="62">
         <v>600</v>
       </c>
-      <c r="E17" s="63">
+      <c r="E17" s="62">
         <f>$D$17*E16</f>
         <v>570</v>
       </c>
-      <c r="F17" s="63">
+      <c r="F17" s="62">
         <f t="shared" ref="F17:K17" si="1">$D$17*F16</f>
         <v>1320</v>
       </c>
-      <c r="G17" s="63">
+      <c r="G17" s="62">
         <f t="shared" si="1"/>
         <v>420</v>
       </c>
-      <c r="H17" s="63">
+      <c r="H17" s="62">
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
-      <c r="I17" s="63">
+      <c r="I17" s="62">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="J17" s="63">
+      <c r="J17" s="62">
         <f t="shared" si="1"/>
         <v>510</v>
       </c>
-      <c r="K17" s="63">
+      <c r="K17" s="62">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
       <c r="L17" s="13"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="63">
+      <c r="D18" s="62">
         <f t="shared" ref="D18:K18" si="2">D17*50</f>
         <v>30000</v>
       </c>
-      <c r="E18" s="63">
+      <c r="E18" s="62">
         <f t="shared" si="2"/>
         <v>28500</v>
       </c>
-      <c r="F18" s="63">
+      <c r="F18" s="62">
         <f t="shared" si="2"/>
         <v>66000</v>
       </c>
-      <c r="G18" s="63">
+      <c r="G18" s="62">
         <f t="shared" si="2"/>
         <v>21000</v>
       </c>
-      <c r="H18" s="63">
+      <c r="H18" s="62">
         <f t="shared" si="2"/>
         <v>24000</v>
       </c>
-      <c r="I18" s="63">
+      <c r="I18" s="62">
         <f t="shared" si="2"/>
         <v>30000</v>
       </c>
-      <c r="J18" s="63">
+      <c r="J18" s="62">
         <f t="shared" si="2"/>
         <v>25500</v>
       </c>
-      <c r="K18" s="63">
+      <c r="K18" s="62">
         <f t="shared" si="2"/>
         <v>36000</v>
       </c>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
-        <v>797</v>
+        <v>777</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>801</v>
+        <v>781</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>802</v>
+        <v>782</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>803</v>
+        <v>783</v>
       </c>
       <c r="L19" s="13"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -9287,9 +9773,9 @@
       <c r="K20" s="5"/>
       <c r="L20" s="13"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5" t="s">
-        <v>729</v>
+        <v>706</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -9327,39 +9813,39 @@
       </c>
       <c r="L21" s="13"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5" t="s">
-        <v>758</v>
+        <v>737</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="64" t="s">
-        <v>804</v>
-      </c>
-      <c r="E22" s="64" t="s">
-        <v>805</v>
-      </c>
-      <c r="F22" s="64" t="s">
-        <v>806</v>
-      </c>
-      <c r="G22" s="64" t="s">
-        <v>807</v>
-      </c>
-      <c r="H22" s="64" t="s">
-        <v>807</v>
-      </c>
-      <c r="I22" s="64" t="s">
-        <v>805</v>
-      </c>
-      <c r="J22" s="64" t="s">
-        <v>805</v>
-      </c>
-      <c r="K22" s="64" t="s">
-        <v>805</v>
+      <c r="D22" s="63" t="s">
+        <v>784</v>
+      </c>
+      <c r="E22" s="63" t="s">
+        <v>785</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>786</v>
+      </c>
+      <c r="G22" s="63" t="s">
+        <v>787</v>
+      </c>
+      <c r="H22" s="63" t="s">
+        <v>787</v>
+      </c>
+      <c r="I22" s="63" t="s">
+        <v>785</v>
+      </c>
+      <c r="J22" s="63" t="s">
+        <v>785</v>
+      </c>
+      <c r="K22" s="63" t="s">
+        <v>785</v>
       </c>
       <c r="L22" s="13"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -9373,14 +9859,14 @@
       <c r="K23" s="5"/>
       <c r="L23" s="13"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5" t="s">
-        <v>808</v>
+        <v>788</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>809</v>
+        <v>789</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -9391,7 +9877,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="13"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -9405,68 +9891,68 @@
       <c r="K25" s="5"/>
       <c r="L25" s="13"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="5" t="s">
-        <v>810</v>
+        <v>790</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>811</v>
+        <v>791</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>812</v>
+        <v>792</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>813</v>
+        <v>793</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>814</v>
+        <v>794</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>816</v>
+        <v>796</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>817</v>
+        <v>797</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>817</v>
+        <v>797</v>
       </c>
       <c r="L26" s="13"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="64" t="s">
-        <v>818</v>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="63" t="s">
+        <v>798</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>819</v>
+        <v>799</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5" t="s">
-        <v>821</v>
+        <v>801</v>
       </c>
       <c r="L27" s="13"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>822</v>
+        <v>802</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -9475,7 +9961,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="13"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -9499,16 +9985,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C2F052-0810-49F2-AD27-606F6F650322}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>97</v>
       </c>
@@ -9528,7 +10014,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -9548,7 +10034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -9568,7 +10054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -9588,7 +10074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -9608,7 +10094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -9628,7 +10114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -9648,7 +10134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -9668,7 +10154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -9688,7 +10174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>118</v>
       </c>
@@ -9708,7 +10194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -9728,7 +10214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>121</v>
       </c>
@@ -9751,7 +10237,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -9774,7 +10260,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -9797,7 +10283,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>109</v>
       </c>
@@ -9820,7 +10306,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>111</v>
       </c>
@@ -9843,7 +10329,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -9866,7 +10352,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>113</v>
       </c>
@@ -9889,7 +10375,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>115</v>
       </c>
@@ -9912,7 +10398,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>116</v>
       </c>
@@ -9935,7 +10421,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>118</v>
       </c>
@@ -9958,7 +10444,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>119</v>
       </c>
@@ -9981,7 +10467,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>152</v>
       </c>
@@ -9995,7 +10481,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -10009,7 +10495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -10023,7 +10509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>109</v>
       </c>
@@ -10037,7 +10523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>111</v>
       </c>
@@ -10051,7 +10537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>112</v>
       </c>
@@ -10065,7 +10551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -10079,7 +10565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>115</v>
       </c>
@@ -10093,7 +10579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -10107,7 +10593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>118</v>
       </c>
@@ -10121,7 +10607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -10148,39 +10634,39 @@
       <selection activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -10194,64 +10680,64 @@
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D3" sqref="D3"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.83984375" customWidth="1"/>
+    <col min="3" max="3" width="11.41796875" customWidth="1"/>
+    <col min="5" max="5" width="14.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="H1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="I1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="J1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="L1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="O1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -10293,9 +10779,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -10337,9 +10823,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -10381,9 +10867,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -10425,9 +10911,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -10469,9 +10955,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -10513,9 +10999,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -10557,9 +11043,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -10601,9 +11087,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D12">
         <v>1.5</v>
@@ -10645,9 +11131,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D13">
         <v>15</v>
@@ -10689,9 +11175,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D14">
         <v>350</v>
@@ -10733,9 +11219,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D15">
         <v>20</v>
@@ -10777,9 +11263,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D16">
         <v>600</v>
@@ -10821,9 +11307,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D17">
         <f xml:space="preserve"> D16*0.3</f>
@@ -10871,97 +11357,97 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D18" t="s">
         <v>151</v>
       </c>
       <c r="E18" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F18" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="G18" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="H18" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I18" t="s">
         <v>151</v>
       </c>
       <c r="J18" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="K18" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s">
         <v>139</v>
       </c>
       <c r="M18" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="N18" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="O18" t="s">
         <v>151</v>
       </c>
       <c r="P18" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E19" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F19" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G19" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H19" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="I19" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="J19" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="K19" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="N19" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="O19" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="P19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -11003,58 +11489,58 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D21" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E21" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="I21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="J21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="K21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="M21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N21" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="O21" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="P21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D23">
         <v>25</v>
@@ -11096,62 +11582,62 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D28" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E28" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F28" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G28" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H28" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="I28" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="J28" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K28" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="L28" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M28" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="N28" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="O28" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="P28" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q28" t="s">
+        <v>218</v>
+      </c>
+      <c r="R28" t="s">
+        <v>219</v>
+      </c>
+      <c r="S28" t="s">
         <v>212</v>
       </c>
-      <c r="R28" t="s">
-        <v>213</v>
-      </c>
-      <c r="S28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D31">
         <v>10</v>
@@ -11169,9 +11655,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D32">
         <v>10</v>
@@ -11189,9 +11675,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D33">
         <v>10</v>
@@ -11209,9 +11695,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D34">
         <v>10</v>
@@ -11229,9 +11715,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D35">
         <v>10</v>
@@ -11249,9 +11735,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D36">
         <v>10</v>
@@ -11269,9 +11755,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D37">
         <v>10</v>
@@ -11289,12 +11775,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D38" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E38">
         <v>20</v>
@@ -11309,9 +11795,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D39">
         <v>200</v>
@@ -11329,9 +11815,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D40">
         <v>10</v>
@@ -11349,40 +11835,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D41" t="s">
         <v>137</v>
       </c>
       <c r="E41" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F41" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E42" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D43" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E43" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -11394,26 +11880,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0338AE56-739E-4450-AFF9-820049675B28}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A17" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.83984375" customWidth="1"/>
+    <col min="2" max="2" width="6.578125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.15625" customWidth="1"/>
+    <col min="9" max="9" width="7.41796875" customWidth="1"/>
     <col min="13" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="15" t="s">
         <v>226</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>227</v>
@@ -11455,7 +11941,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>231</v>
       </c>
@@ -11499,7 +11985,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>240</v>
       </c>
@@ -11543,7 +12029,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>246</v>
       </c>
@@ -11587,7 +12073,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" t="s">
         <v>232</v>
       </c>
@@ -11625,7 +12111,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
         <v>255</v>
       </c>
@@ -11669,7 +12155,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" t="s">
         <v>255</v>
       </c>
@@ -11713,7 +12199,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
         <v>255</v>
       </c>
@@ -11754,7 +12240,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" t="s">
         <v>255</v>
       </c>
@@ -11795,7 +12281,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" t="s">
         <v>276</v>
       </c>
@@ -11836,7 +12322,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" t="s">
         <v>276</v>
       </c>
@@ -11877,7 +12363,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" t="s">
         <v>276</v>
       </c>
@@ -11915,7 +12401,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" t="s">
         <v>276</v>
       </c>
@@ -11938,7 +12424,7 @@
         <v>4000</v>
       </c>
       <c r="J13" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="K13" t="s">
         <v>283</v>
@@ -11953,7 +12439,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" t="s">
         <v>286</v>
       </c>
@@ -11976,7 +12462,7 @@
         <v>5000</v>
       </c>
       <c r="J14" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="K14" t="s">
         <v>285</v>
@@ -11994,7 +12480,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" t="s">
         <v>286</v>
       </c>
@@ -12017,7 +12503,7 @@
         <v>6500</v>
       </c>
       <c r="J15" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="K15" t="s">
         <v>285</v>
@@ -12035,7 +12521,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" t="s">
         <v>286</v>
       </c>
@@ -12076,7 +12562,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" t="s">
         <v>286</v>
       </c>
@@ -12117,7 +12603,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" t="s">
         <v>239</v>
       </c>
@@ -12158,7 +12644,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" t="s">
         <v>239</v>
       </c>
@@ -12199,7 +12685,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" t="s">
         <v>239</v>
       </c>
@@ -12240,7 +12726,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" t="s">
         <v>239</v>
       </c>
@@ -12278,9 +12764,9 @@
         <v>315</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D22" t="s">
         <v>233</v>
@@ -12305,9 +12791,9 @@
         <v>317</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D23" t="s">
         <v>241</v>
@@ -12323,9 +12809,9 @@
         <v>319</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D24" t="s">
         <v>236</v>
@@ -12340,9 +12826,9 @@
         <v>321</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D25" t="s">
         <v>243</v>
@@ -12357,9 +12843,9 @@
         <v>323</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D26" t="s">
         <v>248</v>
@@ -12371,9 +12857,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D27" t="s">
         <v>252</v>
@@ -12385,12 +12871,12 @@
         <v>325</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q28" s="20" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="J29" t="s">
         <v>327</v>
       </c>
@@ -12398,7 +12884,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>329</v>
       </c>
@@ -12412,15 +12898,15 @@
         <v>332</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q31" s="20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>333</v>
@@ -12433,12 +12919,12 @@
       </c>
       <c r="Q32" s="13"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="4" t="s">
         <v>233</v>
       </c>
       <c r="B33" s="4">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>336</v>
@@ -12449,16 +12935,19 @@
       <c r="E33" s="4">
         <v>1</v>
       </c>
+      <c r="G33" t="s">
+        <v>815</v>
+      </c>
       <c r="H33" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4" t="s">
         <v>241</v>
       </c>
       <c r="B34" s="4">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>336</v>
@@ -12469,13 +12958,16 @@
       <c r="E34" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="4" t="s">
         <v>236</v>
       </c>
       <c r="B35" s="4">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>340</v>
@@ -12486,13 +12978,16 @@
       <c r="E35" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B36" s="32">
-        <v>6.5</v>
+      <c r="B36" s="115">
+        <v>3.5</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>340</v>
@@ -12503,13 +12998,16 @@
       <c r="E36" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="4" t="s">
         <v>248</v>
       </c>
       <c r="B37" s="4">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>343</v>
@@ -12520,13 +13018,16 @@
       <c r="E37" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="4" t="s">
         <v>252</v>
       </c>
       <c r="B38" s="4">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>345</v>
@@ -12537,8 +13038,11 @@
       <c r="E38" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>347</v>
       </c>
@@ -12553,24 +13057,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BCD841-BB64-47F4-96C2-792BAE95A340}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView topLeftCell="D22" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.578125" customWidth="1"/>
+    <col min="3" max="3" width="13.26171875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="3.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.15625" customWidth="1"/>
+    <col min="7" max="7" width="9.68359375" customWidth="1"/>
+    <col min="8" max="8" width="12.83984375" customWidth="1"/>
+    <col min="9" max="9" width="16.15625" customWidth="1"/>
+    <col min="11" max="11" width="3.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>348</v>
       </c>
@@ -12579,7 +13083,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
         <v>350</v>
@@ -12609,7 +13113,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>233</v>
       </c>
@@ -12642,7 +13146,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>241</v>
       </c>
@@ -12666,8 +13170,8 @@
       <c r="G4" s="3"/>
       <c r="H4" s="5"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
       <c r="L4" s="10"/>
       <c r="M4" t="s">
         <v>359</v>
@@ -12676,7 +13180,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>236</v>
       </c>
@@ -12710,7 +13214,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>243</v>
       </c>
@@ -12737,7 +13241,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>248</v>
       </c>
@@ -12768,7 +13272,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="M8" t="s">
         <v>366</v>
       </c>
@@ -12779,7 +13283,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>369</v>
       </c>
@@ -12793,7 +13297,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
         <v>373</v>
       </c>
@@ -12804,7 +13308,7 @@
         <v>375</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>376</v>
@@ -12825,7 +13329,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
         <v>382</v>
       </c>
@@ -12860,7 +13364,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
         <v>154</v>
       </c>
@@ -12896,7 +13400,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>399</v>
       </c>
@@ -12932,7 +13436,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -12946,7 +13450,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>408</v>
       </c>
@@ -12957,7 +13461,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4" t="s">
         <v>411</v>
       </c>
@@ -12968,7 +13472,7 @@
         <v>413</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>414</v>
@@ -12981,7 +13485,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4" t="s">
         <v>417</v>
       </c>
@@ -13004,7 +13508,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4" t="s">
         <v>411</v>
       </c>
@@ -13021,7 +13525,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4" t="s">
         <v>425</v>
       </c>
@@ -13038,7 +13542,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="L20" s="9" t="s">
         <v>428</v>
       </c>
@@ -13050,7 +13554,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4" t="s">
         <v>430</v>
       </c>
@@ -13059,7 +13563,7 @@
         <v>431</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>432</v>
@@ -13072,7 +13576,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4" t="s">
         <v>434</v>
       </c>
@@ -13101,7 +13605,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4" t="s">
         <v>439</v>
       </c>
@@ -13124,7 +13628,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4" t="s">
         <v>441</v>
       </c>
@@ -13147,7 +13651,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="L25" s="3"/>
       <c r="M25" s="4">
         <v>147</v>
@@ -13159,7 +13663,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="L26" s="3"/>
       <c r="M26" s="4">
         <v>148</v>
@@ -13171,7 +13675,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="M27" s="4">
         <v>149</v>
       </c>
@@ -13182,7 +13686,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4" t="s">
         <v>446</v>
       </c>
@@ -13193,13 +13697,13 @@
         <v>448</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>449</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>450</v>
@@ -13213,11 +13717,11 @@
       <c r="J28" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="K28" s="49" t="s">
+      <c r="K28" s="48" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4" t="s">
         <v>455</v>
       </c>
@@ -13231,7 +13735,7 @@
         <v>457</v>
       </c>
       <c r="E29" s="4">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F29" s="4">
         <v>90000</v>
@@ -13245,15 +13749,18 @@
       <c r="I29" s="4">
         <v>2</v>
       </c>
-      <c r="J29" s="33" t="s">
+      <c r="J29" s="32" t="s">
         <v>458</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>459</v>
       </c>
       <c r="M29" s="9"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R29" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="4" t="s">
         <v>460</v>
       </c>
@@ -13267,7 +13774,7 @@
         <v>462</v>
       </c>
       <c r="E30" s="4">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>463</v>
@@ -13284,16 +13791,19 @@
       <c r="J30" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K30" s="47" t="s">
+      <c r="K30" s="46" t="s">
         <v>464</v>
       </c>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="50"/>
+      <c r="N30" s="49"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R30" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="4" t="s">
         <v>465</v>
       </c>
@@ -13307,7 +13817,7 @@
         <v>467</v>
       </c>
       <c r="E31" s="4">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>463</v>
@@ -13327,13 +13837,16 @@
       <c r="K31" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="47"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="46"/>
       <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R31" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="6" t="s">
         <v>469</v>
       </c>
@@ -13347,7 +13860,7 @@
         <v>471</v>
       </c>
       <c r="E32" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>463</v>
@@ -13372,8 +13885,11 @@
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R32" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="6" t="s">
         <v>473</v>
       </c>
@@ -13387,7 +13903,7 @@
         <v>474</v>
       </c>
       <c r="E33" s="6">
-        <v>8</v>
+        <v>4.7</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>463</v>
@@ -13412,20 +13928,23 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R33" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="6" t="s">
         <v>476</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>477</v>
@@ -13446,7 +13965,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="6" t="s">
         <v>481</v>
       </c>
@@ -13456,7 +13975,7 @@
       <c r="C36" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D36" s="51">
+      <c r="D36" s="50">
         <v>0.3</v>
       </c>
       <c r="E36" s="6">
@@ -13469,7 +13988,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="6" t="s">
         <v>482</v>
       </c>
@@ -13479,7 +13998,7 @@
       <c r="C37" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D37" s="51">
+      <c r="D37" s="50">
         <v>0.3</v>
       </c>
       <c r="E37" s="6">
@@ -13492,7 +14011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="6" t="s">
         <v>483</v>
       </c>
@@ -13502,7 +14021,7 @@
       <c r="C38" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D38" s="51">
+      <c r="D38" s="50">
         <v>0.4</v>
       </c>
       <c r="E38" s="6">
@@ -13515,7 +14034,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="6" t="s">
         <v>484</v>
       </c>
@@ -13525,7 +14044,7 @@
       <c r="C39" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D39" s="51">
+      <c r="D39" s="50">
         <v>0.5</v>
       </c>
       <c r="E39" s="6">
@@ -13538,7 +14057,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="6" t="s">
         <v>468</v>
       </c>
@@ -13548,7 +14067,7 @@
       <c r="C40" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="D40" s="51">
+      <c r="D40" s="50">
         <v>1</v>
       </c>
       <c r="E40" s="6">
@@ -13564,10 +14083,10 @@
         <v>447</v>
       </c>
       <c r="O40" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="P40" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q40" t="s">
         <v>486</v>
@@ -13576,7 +14095,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="6" t="s">
         <v>481</v>
       </c>
@@ -13586,7 +14105,7 @@
       <c r="C41" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D41" s="51">
+      <c r="D41" s="50">
         <v>0.8</v>
       </c>
       <c r="E41" s="6">
@@ -13614,7 +14133,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -13635,27 +14154,27 @@
         <v>490</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="N45" t="s">
         <v>447</v>
       </c>
       <c r="O45" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="P45" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q45" t="s">
         <v>486</v>
@@ -13664,7 +14183,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="M46" t="s">
         <v>493</v>
       </c>
@@ -13684,7 +14203,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="M47" t="s">
         <v>495</v>
       </c>
@@ -13694,7 +14213,7 @@
       <c r="O47" t="s">
         <v>494</v>
       </c>
-      <c r="P47" s="97" t="s">
+      <c r="P47" s="96" t="s">
         <v>496</v>
       </c>
       <c r="Q47" s="1">
@@ -13704,7 +14223,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="M48" t="s">
         <v>497</v>
       </c>
@@ -13724,15 +14243,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="13:18" x14ac:dyDescent="0.55000000000000004">
       <c r="N50" t="s">
         <v>447</v>
       </c>
       <c r="O50" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="P50" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q50" t="s">
         <v>486</v>
@@ -13741,7 +14260,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="51" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="13:18" x14ac:dyDescent="0.55000000000000004">
       <c r="M51" t="s">
         <v>501</v>
       </c>
@@ -13761,7 +14280,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="52" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="13:18" x14ac:dyDescent="0.55000000000000004">
       <c r="M52" t="s">
         <v>502</v>
       </c>
@@ -13771,7 +14290,7 @@
       <c r="O52" t="s">
         <v>353</v>
       </c>
-      <c r="P52" s="97" t="s">
+      <c r="P52" s="96" t="s">
         <v>503</v>
       </c>
       <c r="Q52" s="1">
@@ -13781,7 +14300,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="53" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="13:18" x14ac:dyDescent="0.55000000000000004">
       <c r="M53" t="s">
         <v>504</v>
       </c>
@@ -13801,7 +14320,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="54" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="13:18" x14ac:dyDescent="0.55000000000000004">
       <c r="M54" t="s">
         <v>388</v>
       </c>
@@ -13821,7 +14340,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="55" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="13:18" x14ac:dyDescent="0.55000000000000004">
       <c r="M55" t="s">
         <v>510</v>
       </c>
@@ -13841,15 +14360,15 @@
         <v>513</v>
       </c>
     </row>
-    <row r="58" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="13:18" x14ac:dyDescent="0.55000000000000004">
       <c r="N58" t="s">
         <v>447</v>
       </c>
       <c r="O58" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="P58" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q58" t="s">
         <v>486</v>
@@ -13858,7 +14377,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="59" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="13:18" x14ac:dyDescent="0.55000000000000004">
       <c r="M59" t="s">
         <v>355</v>
       </c>
@@ -13878,7 +14397,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="60" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="13:18" x14ac:dyDescent="0.55000000000000004">
       <c r="M60" t="s">
         <v>357</v>
       </c>
@@ -13888,7 +14407,7 @@
       <c r="O60" t="s">
         <v>353</v>
       </c>
-      <c r="P60" s="97" t="s">
+      <c r="P60" s="96" t="s">
         <v>503</v>
       </c>
       <c r="Q60" s="1" t="s">
@@ -13898,7 +14417,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="61" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="13:18" x14ac:dyDescent="0.55000000000000004">
       <c r="M61" t="s">
         <v>359</v>
       </c>
@@ -13918,24 +14437,24 @@
         <v>518</v>
       </c>
     </row>
-    <row r="64" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="13:18" x14ac:dyDescent="0.55000000000000004">
       <c r="M64" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="N64" t="s">
         <v>447</v>
       </c>
       <c r="O64" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="P64" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q64" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="65" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="13:17" x14ac:dyDescent="0.55000000000000004">
       <c r="M65" t="s">
         <v>519</v>
       </c>
@@ -13946,7 +14465,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="66" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="13:17" x14ac:dyDescent="0.55000000000000004">
       <c r="M66" t="s">
         <v>406</v>
       </c>
@@ -13963,7 +14482,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="67" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="13:17" x14ac:dyDescent="0.55000000000000004">
       <c r="M67" t="s">
         <v>525</v>
       </c>
@@ -13980,7 +14499,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="68" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="13:17" x14ac:dyDescent="0.55000000000000004">
       <c r="M68" t="s">
         <v>527</v>
       </c>
@@ -14008,13 +14527,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE38BF60-1FAD-4CB4-9C04-B4D89EBA1915}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -14022,7 +14541,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -14030,7 +14549,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>529</v>
       </c>
@@ -14046,7 +14565,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="21" t="s">
         <v>531</v>
       </c>
@@ -14055,7 +14574,7 @@
       </c>
       <c r="D4" s="23"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>533</v>
@@ -14072,7 +14591,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>536</v>
@@ -14091,7 +14610,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3"/>
       <c r="B7" s="5" t="s">
         <v>539</v>
@@ -14110,7 +14629,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -14125,7 +14644,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -14137,7 +14656,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3"/>
       <c r="B10" s="24" t="s">
         <v>547</v>
@@ -14150,7 +14669,7 @@
       <c r="F10" s="26"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3"/>
       <c r="B11" s="27"/>
       <c r="C11" s="3"/>
@@ -14162,7 +14681,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3"/>
       <c r="B12" s="27" t="s">
         <v>550</v>
@@ -14178,10 +14697,10 @@
         <v>552</v>
       </c>
       <c r="I12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="27" t="s">
         <v>553</v>
       </c>
@@ -14198,7 +14717,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="27" t="s">
         <v>557</v>
       </c>
@@ -14211,7 +14730,7 @@
       </c>
       <c r="F14" s="28"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="27" t="s">
         <v>559</v>
       </c>
@@ -14222,7 +14741,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="28"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="27" t="s">
         <v>561</v>
       </c>
@@ -14233,7 +14752,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="28"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="27" t="s">
         <v>563</v>
       </c>
@@ -14250,7 +14769,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="27" t="s">
         <v>567</v>
       </c>
@@ -14264,7 +14783,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="27" t="s">
         <v>570</v>
       </c>
@@ -14278,12 +14797,12 @@
         <v>572</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="27" t="s">
         <v>573</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="33" t="s">
         <v>574</v>
       </c>
       <c r="E20" s="3"/>
@@ -14292,7 +14811,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
       <c r="D21" s="27" t="s">
@@ -14301,7 +14820,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="28"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" s="27" t="s">
         <v>577</v>
       </c>
@@ -14314,14 +14833,14 @@
         <v>579</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" s="29" t="s">
         <v>580</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="30"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>581</v>
       </c>
@@ -14332,7 +14851,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>584</v>
       </c>
@@ -14340,12 +14859,12 @@
         <v>585</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H27" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>587</v>
       </c>
@@ -14353,7 +14872,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>589</v>
       </c>
@@ -14364,7 +14883,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>592</v>
       </c>
@@ -14372,12 +14891,12 @@
         <v>593</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>560</v>
       </c>
@@ -14385,7 +14904,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>554</v>
       </c>
@@ -14403,17 +14922,17 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.83984375" customWidth="1"/>
+    <col min="2" max="2" width="6.83984375" customWidth="1"/>
+    <col min="4" max="4" width="11.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>595</v>
       </c>
@@ -14424,7 +14943,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>597</v>
       </c>
@@ -14438,7 +14957,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>599</v>
       </c>
@@ -14452,7 +14971,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>601</v>
       </c>
@@ -14466,25 +14985,25 @@
         <v>602</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E5" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>604</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>605</v>
@@ -14495,7 +15014,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>237</v>
       </c>
@@ -14503,15 +15022,17 @@
         <v>2000</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>1.65</v>
       </c>
       <c r="D9" t="s">
         <v>606</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="3" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>244</v>
       </c>
@@ -14519,15 +15040,17 @@
         <v>4000</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="D10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>249</v>
       </c>
@@ -14535,13 +15058,16 @@
         <v>9000</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="D11" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+      <c r="F11" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>253</v>
       </c>
@@ -14549,13 +15075,16 @@
         <v>20000</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="D12" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+      <c r="F12" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>237</v>
       </c>
@@ -14563,13 +15092,16 @@
         <v>2000</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D13" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+      <c r="F13" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>244</v>
       </c>
@@ -14577,13 +15109,16 @@
         <v>4000</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D14" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+      <c r="F14" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>249</v>
       </c>
@@ -14591,13 +15126,16 @@
         <v>9000</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="D15" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+      <c r="F15" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>253</v>
       </c>
@@ -14605,218 +15143,263 @@
         <v>20000</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="D16" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+      <c r="F16" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="B17">
         <v>100000</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="B18">
         <v>140000</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+      <c r="F18" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B19">
         <v>6000</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D19" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="B20">
         <v>12000</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="D20" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="B21">
         <v>24000</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="B22">
         <v>42000</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>4.8</v>
       </c>
       <c r="D22" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="B23">
         <v>6000</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D23" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="B24">
         <v>12000</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="D24" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="B25">
         <v>24000</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="B26">
         <v>42000</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>4.8</v>
       </c>
       <c r="D26" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="B27">
         <v>20000</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="D27" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="E27" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+      <c r="F27" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="B28">
         <v>40000</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="D28" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="E28" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+      <c r="F28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="B29">
         <v>30000</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="D29" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="E29" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+      <c r="F29" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="B30">
         <v>70000</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="D30" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="E30" t="s">
-        <v>629</v>
+        <v>622</v>
+      </c>
+      <c r="F30" t="s">
+        <v>823</v>
       </c>
     </row>
   </sheetData>
@@ -14826,332 +15409,1482 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA0C063-20D4-45BB-9BD3-9FD62F3F658C}">
-  <dimension ref="A1:S37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91F2C27-23F6-4560-9E8C-8FE78EF63A2D}">
+  <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC93" sqref="A1:AC93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="48" customWidth="1"/>
-    <col min="3" max="3" width="3.5703125" customWidth="1"/>
-    <col min="17" max="17" width="42" customWidth="1"/>
+    <col min="1" max="2" width="15.15625" customWidth="1"/>
+    <col min="3" max="3" width="8.68359375" customWidth="1"/>
+    <col min="4" max="4" width="16.47265625" customWidth="1"/>
+    <col min="5" max="5" width="13.05078125" customWidth="1"/>
+    <col min="6" max="6" width="19.62890625" customWidth="1"/>
+    <col min="7" max="7" width="17.15625" customWidth="1"/>
+    <col min="8" max="8" width="6.62890625" customWidth="1"/>
+    <col min="9" max="9" width="11.578125" customWidth="1"/>
+    <col min="10" max="10" width="13.3125" customWidth="1"/>
+    <col min="11" max="11" width="6.05078125" customWidth="1"/>
+    <col min="12" max="12" width="8.83984375" customWidth="1"/>
+    <col min="13" max="13" width="6.47265625" customWidth="1"/>
+    <col min="14" max="14" width="6.3125" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="16" max="16" width="12.7890625" customWidth="1"/>
+    <col min="17" max="17" width="13.15625" customWidth="1"/>
+    <col min="18" max="18" width="10" customWidth="1"/>
+    <col min="19" max="19" width="11.578125" customWidth="1"/>
+    <col min="20" max="20" width="5.7890625" customWidth="1"/>
+    <col min="21" max="21" width="7.3671875" customWidth="1"/>
+    <col min="22" max="22" width="11.734375" customWidth="1"/>
+    <col min="23" max="23" width="12.89453125" customWidth="1"/>
+    <col min="24" max="28" width="10" customWidth="1"/>
+    <col min="29" max="29" width="9.62890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>630</v>
+        <v>824</v>
+      </c>
+      <c r="B1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C1" t="s">
+        <v>852</v>
       </c>
       <c r="D1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="E1" t="s">
+        <v>826</v>
+      </c>
+      <c r="F1" t="s">
+        <v>867</v>
+      </c>
+      <c r="G1" t="s">
+        <v>868</v>
+      </c>
+      <c r="H1" t="s">
+        <v>843</v>
+      </c>
+      <c r="I1" t="s">
+        <v>851</v>
+      </c>
+      <c r="J1" t="s">
+        <v>844</v>
+      </c>
+      <c r="K1" t="s">
+        <v>845</v>
+      </c>
+      <c r="L1" t="s">
+        <v>846</v>
+      </c>
+      <c r="M1" t="s">
+        <v>847</v>
+      </c>
+      <c r="N1" t="s">
+        <v>848</v>
+      </c>
+      <c r="O1" t="s">
+        <v>849</v>
+      </c>
+      <c r="P1" t="s">
+        <v>850</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>853</v>
+      </c>
+      <c r="R1" t="s">
+        <v>854</v>
+      </c>
+      <c r="S1" t="s">
+        <v>855</v>
+      </c>
+      <c r="T1" t="s">
+        <v>856</v>
+      </c>
+      <c r="U1" t="s">
+        <v>862</v>
+      </c>
+      <c r="V1" t="s">
+        <v>863</v>
+      </c>
+      <c r="W1" t="s">
+        <v>864</v>
+      </c>
+      <c r="X1" t="s">
+        <v>865</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>866</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B2" t="s">
+        <v>858</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="AC2">
+        <f>SUM(H2:AB2)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>632</v>
-      </c>
-      <c r="B3"/>
-    </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>829</v>
+      </c>
+      <c r="B3" t="s">
+        <v>858</v>
+      </c>
+      <c r="C3" t="s">
+        <v>869</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" ref="AC3:AC66" si="0">SUM(H3:AB3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>633</v>
-      </c>
-      <c r="B4"/>
-    </row>
-    <row r="5" spans="1:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>858</v>
+      </c>
+      <c r="C4" t="s">
+        <v>870</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>858</v>
+      </c>
+      <c r="C5" t="s">
+        <v>871</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>830</v>
+      </c>
+      <c r="B6" t="s">
+        <v>858</v>
+      </c>
+      <c r="C6" t="s">
+        <v>872</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>858</v>
+      </c>
+      <c r="C7" t="s">
+        <v>873</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>858</v>
+      </c>
+      <c r="C8" t="s">
+        <v>874</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>831</v>
+      </c>
+      <c r="B9" t="s">
+        <v>858</v>
+      </c>
+      <c r="C9" t="s">
+        <v>875</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>636</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>637</v>
-      </c>
-      <c r="D10" t="s">
-        <v>638</v>
-      </c>
-      <c r="M10" t="s">
-        <v>639</v>
-      </c>
-      <c r="N10" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>832</v>
+      </c>
+      <c r="B10" t="s">
+        <v>858</v>
+      </c>
+      <c r="C10" t="s">
+        <v>876</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>833</v>
+      </c>
+      <c r="B11" t="s">
+        <v>858</v>
+      </c>
+      <c r="C11" t="s">
+        <v>877</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>834</v>
+      </c>
+      <c r="B12" t="s">
+        <v>858</v>
+      </c>
+      <c r="C12" t="s">
+        <v>878</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="48" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>396</v>
-      </c>
-      <c r="H16" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>858</v>
+      </c>
+      <c r="C13" t="s">
+        <v>879</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>858</v>
+      </c>
+      <c r="C14" t="s">
+        <v>880</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>835</v>
+      </c>
+      <c r="B15" t="s">
+        <v>858</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>858</v>
+      </c>
+      <c r="C16" t="s">
+        <v>881</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>836</v>
+      </c>
+      <c r="B17" t="s">
+        <v>858</v>
+      </c>
+      <c r="C17" t="s">
+        <v>882</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+        <v>837</v>
+      </c>
+      <c r="B18" t="s">
+        <v>858</v>
+      </c>
+      <c r="C18" t="s">
+        <v>883</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>647</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+        <v>838</v>
+      </c>
+      <c r="B19" t="s">
+        <v>858</v>
+      </c>
+      <c r="C19" t="s">
+        <v>884</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>648</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-    </row>
-    <row r="21" spans="1:19" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="36"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-    </row>
-    <row r="22" spans="1:19" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-    </row>
-    <row r="23" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="36"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-    </row>
-    <row r="24" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+      <c r="B20" t="s">
+        <v>858</v>
+      </c>
+      <c r="C20" t="s">
+        <v>885</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>840</v>
+      </c>
+      <c r="B21" t="s">
+        <v>858</v>
+      </c>
+      <c r="C21" t="s">
+        <v>886</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>841</v>
+      </c>
+      <c r="B22" t="s">
+        <v>858</v>
+      </c>
+      <c r="C22" t="s">
+        <v>887</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>858</v>
+      </c>
+      <c r="C23" t="s">
+        <v>881</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>649</v>
-      </c>
-      <c r="B24" s="36"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-    </row>
-    <row r="25" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="36"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-    </row>
-    <row r="26" spans="1:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="36"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-    </row>
-    <row r="27" spans="1:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="36"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-    </row>
-    <row r="28" spans="1:19" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="36"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-    </row>
-    <row r="29" spans="1:19" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="36"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-    </row>
-    <row r="30" spans="1:19" ht="56.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="36"/>
-      <c r="C30" s="35"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-    </row>
-    <row r="33" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-    </row>
-    <row r="34" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-    </row>
-    <row r="35" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-    </row>
-    <row r="36" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-    </row>
-    <row r="37" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
+        <v>842</v>
+      </c>
+      <c r="B24" t="s">
+        <v>858</v>
+      </c>
+      <c r="C24" t="s">
+        <v>888</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>828</v>
+      </c>
+      <c r="B25" t="s">
+        <v>859</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>829</v>
+      </c>
+      <c r="B26" t="s">
+        <v>859</v>
+      </c>
+      <c r="C26" t="s">
+        <v>869</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>859</v>
+      </c>
+      <c r="C27" t="s">
+        <v>870</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" t="s">
+        <v>859</v>
+      </c>
+      <c r="C28" t="s">
+        <v>871</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>830</v>
+      </c>
+      <c r="B29" t="s">
+        <v>859</v>
+      </c>
+      <c r="C29" t="s">
+        <v>872</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>859</v>
+      </c>
+      <c r="C30" t="s">
+        <v>873</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>859</v>
+      </c>
+      <c r="C31" t="s">
+        <v>874</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>831</v>
+      </c>
+      <c r="B32" t="s">
+        <v>859</v>
+      </c>
+      <c r="C32" t="s">
+        <v>875</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>832</v>
+      </c>
+      <c r="B33" t="s">
+        <v>859</v>
+      </c>
+      <c r="C33" t="s">
+        <v>876</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>833</v>
+      </c>
+      <c r="B34" t="s">
+        <v>859</v>
+      </c>
+      <c r="C34" t="s">
+        <v>877</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>834</v>
+      </c>
+      <c r="B35" t="s">
+        <v>859</v>
+      </c>
+      <c r="C35" t="s">
+        <v>878</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" t="s">
+        <v>859</v>
+      </c>
+      <c r="C36" t="s">
+        <v>879</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>859</v>
+      </c>
+      <c r="C37" t="s">
+        <v>880</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>835</v>
+      </c>
+      <c r="B38" t="s">
+        <v>859</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>859</v>
+      </c>
+      <c r="C39" t="s">
+        <v>881</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>836</v>
+      </c>
+      <c r="B40" t="s">
+        <v>859</v>
+      </c>
+      <c r="C40" t="s">
+        <v>882</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>837</v>
+      </c>
+      <c r="B41" t="s">
+        <v>859</v>
+      </c>
+      <c r="C41" t="s">
+        <v>883</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>838</v>
+      </c>
+      <c r="B42" t="s">
+        <v>859</v>
+      </c>
+      <c r="C42" t="s">
+        <v>884</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>839</v>
+      </c>
+      <c r="B43" t="s">
+        <v>859</v>
+      </c>
+      <c r="C43" t="s">
+        <v>885</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>840</v>
+      </c>
+      <c r="B44" t="s">
+        <v>859</v>
+      </c>
+      <c r="C44" t="s">
+        <v>886</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>841</v>
+      </c>
+      <c r="B45" t="s">
+        <v>859</v>
+      </c>
+      <c r="C45" t="s">
+        <v>887</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>859</v>
+      </c>
+      <c r="C46" t="s">
+        <v>881</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>842</v>
+      </c>
+      <c r="B47" t="s">
+        <v>859</v>
+      </c>
+      <c r="C47" t="s">
+        <v>888</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>828</v>
+      </c>
+      <c r="B48" t="s">
+        <v>860</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>829</v>
+      </c>
+      <c r="B49" t="s">
+        <v>860</v>
+      </c>
+      <c r="C49" t="s">
+        <v>869</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" t="s">
+        <v>860</v>
+      </c>
+      <c r="C50" t="s">
+        <v>870</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" t="s">
+        <v>860</v>
+      </c>
+      <c r="C51" t="s">
+        <v>871</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>830</v>
+      </c>
+      <c r="B52" t="s">
+        <v>860</v>
+      </c>
+      <c r="C52" t="s">
+        <v>872</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>860</v>
+      </c>
+      <c r="C53" t="s">
+        <v>873</v>
+      </c>
+      <c r="AC53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" t="s">
+        <v>860</v>
+      </c>
+      <c r="C54" t="s">
+        <v>874</v>
+      </c>
+      <c r="AC54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>831</v>
+      </c>
+      <c r="B55" t="s">
+        <v>860</v>
+      </c>
+      <c r="C55" t="s">
+        <v>875</v>
+      </c>
+      <c r="AC55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>832</v>
+      </c>
+      <c r="B56" t="s">
+        <v>860</v>
+      </c>
+      <c r="C56" t="s">
+        <v>876</v>
+      </c>
+      <c r="AC56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
+        <v>833</v>
+      </c>
+      <c r="B57" t="s">
+        <v>860</v>
+      </c>
+      <c r="C57" t="s">
+        <v>877</v>
+      </c>
+      <c r="AC57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" t="s">
+        <v>834</v>
+      </c>
+      <c r="B58" t="s">
+        <v>860</v>
+      </c>
+      <c r="C58" t="s">
+        <v>878</v>
+      </c>
+      <c r="AC58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>860</v>
+      </c>
+      <c r="C59" t="s">
+        <v>879</v>
+      </c>
+      <c r="AC59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" t="s">
+        <v>860</v>
+      </c>
+      <c r="C60" t="s">
+        <v>880</v>
+      </c>
+      <c r="AC60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" t="s">
+        <v>835</v>
+      </c>
+      <c r="B61" t="s">
+        <v>860</v>
+      </c>
+      <c r="AC61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" t="s">
+        <v>860</v>
+      </c>
+      <c r="C62" t="s">
+        <v>881</v>
+      </c>
+      <c r="AC62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" t="s">
+        <v>836</v>
+      </c>
+      <c r="B63" t="s">
+        <v>860</v>
+      </c>
+      <c r="C63" t="s">
+        <v>882</v>
+      </c>
+      <c r="AC63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" t="s">
+        <v>837</v>
+      </c>
+      <c r="B64" t="s">
+        <v>860</v>
+      </c>
+      <c r="C64" t="s">
+        <v>883</v>
+      </c>
+      <c r="AC64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" t="s">
+        <v>838</v>
+      </c>
+      <c r="B65" t="s">
+        <v>860</v>
+      </c>
+      <c r="C65" t="s">
+        <v>884</v>
+      </c>
+      <c r="AC65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" t="s">
+        <v>839</v>
+      </c>
+      <c r="B66" t="s">
+        <v>860</v>
+      </c>
+      <c r="C66" t="s">
+        <v>885</v>
+      </c>
+      <c r="AC66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" t="s">
+        <v>840</v>
+      </c>
+      <c r="B67" t="s">
+        <v>860</v>
+      </c>
+      <c r="C67" t="s">
+        <v>886</v>
+      </c>
+      <c r="AC67">
+        <f t="shared" ref="AC67:AC93" si="1">SUM(H67:AB67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" t="s">
+        <v>841</v>
+      </c>
+      <c r="B68" t="s">
+        <v>860</v>
+      </c>
+      <c r="C68" t="s">
+        <v>887</v>
+      </c>
+      <c r="AC68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C69" t="s">
+        <v>881</v>
+      </c>
+      <c r="AC69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="s">
+        <v>842</v>
+      </c>
+      <c r="B70" t="s">
+        <v>860</v>
+      </c>
+      <c r="C70" t="s">
+        <v>888</v>
+      </c>
+      <c r="AC70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" t="s">
+        <v>828</v>
+      </c>
+      <c r="B71" t="s">
+        <v>861</v>
+      </c>
+      <c r="AC71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="s">
+        <v>829</v>
+      </c>
+      <c r="B72" t="s">
+        <v>861</v>
+      </c>
+      <c r="C72" t="s">
+        <v>869</v>
+      </c>
+      <c r="AC72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" t="s">
+        <v>861</v>
+      </c>
+      <c r="C73" t="s">
+        <v>870</v>
+      </c>
+      <c r="AC73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" t="s">
+        <v>861</v>
+      </c>
+      <c r="C74" t="s">
+        <v>871</v>
+      </c>
+      <c r="AC74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" t="s">
+        <v>830</v>
+      </c>
+      <c r="B75" t="s">
+        <v>861</v>
+      </c>
+      <c r="C75" t="s">
+        <v>872</v>
+      </c>
+      <c r="AC75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" t="s">
+        <v>861</v>
+      </c>
+      <c r="C76" t="s">
+        <v>873</v>
+      </c>
+      <c r="AC76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" t="s">
+        <v>861</v>
+      </c>
+      <c r="C77" t="s">
+        <v>874</v>
+      </c>
+      <c r="AC77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" t="s">
+        <v>831</v>
+      </c>
+      <c r="B78" t="s">
+        <v>861</v>
+      </c>
+      <c r="C78" t="s">
+        <v>875</v>
+      </c>
+      <c r="AC78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" t="s">
+        <v>832</v>
+      </c>
+      <c r="B79" t="s">
+        <v>861</v>
+      </c>
+      <c r="C79" t="s">
+        <v>876</v>
+      </c>
+      <c r="AC79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" t="s">
+        <v>833</v>
+      </c>
+      <c r="B80" t="s">
+        <v>861</v>
+      </c>
+      <c r="C80" t="s">
+        <v>877</v>
+      </c>
+      <c r="AC80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" t="s">
+        <v>834</v>
+      </c>
+      <c r="B81" t="s">
+        <v>861</v>
+      </c>
+      <c r="C81" t="s">
+        <v>878</v>
+      </c>
+      <c r="AC81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" t="s">
+        <v>64</v>
+      </c>
+      <c r="B82" t="s">
+        <v>861</v>
+      </c>
+      <c r="C82" t="s">
+        <v>879</v>
+      </c>
+      <c r="AC82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" t="s">
+        <v>861</v>
+      </c>
+      <c r="C83" t="s">
+        <v>880</v>
+      </c>
+      <c r="AC83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="s">
+        <v>835</v>
+      </c>
+      <c r="B84" t="s">
+        <v>861</v>
+      </c>
+      <c r="AC84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" t="s">
+        <v>35</v>
+      </c>
+      <c r="B85" t="s">
+        <v>861</v>
+      </c>
+      <c r="C85" t="s">
+        <v>881</v>
+      </c>
+      <c r="AC85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" t="s">
+        <v>836</v>
+      </c>
+      <c r="B86" t="s">
+        <v>861</v>
+      </c>
+      <c r="C86" t="s">
+        <v>882</v>
+      </c>
+      <c r="AC86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" t="s">
+        <v>837</v>
+      </c>
+      <c r="B87" t="s">
+        <v>861</v>
+      </c>
+      <c r="C87" t="s">
+        <v>883</v>
+      </c>
+      <c r="AC87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" t="s">
+        <v>838</v>
+      </c>
+      <c r="B88" t="s">
+        <v>861</v>
+      </c>
+      <c r="C88" t="s">
+        <v>884</v>
+      </c>
+      <c r="AC88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" t="s">
+        <v>839</v>
+      </c>
+      <c r="B89" t="s">
+        <v>861</v>
+      </c>
+      <c r="C89" t="s">
+        <v>885</v>
+      </c>
+      <c r="AC89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" t="s">
+        <v>840</v>
+      </c>
+      <c r="B90" t="s">
+        <v>861</v>
+      </c>
+      <c r="C90" t="s">
+        <v>886</v>
+      </c>
+      <c r="AC90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" t="s">
+        <v>841</v>
+      </c>
+      <c r="B91" t="s">
+        <v>861</v>
+      </c>
+      <c r="C91" t="s">
+        <v>887</v>
+      </c>
+      <c r="AC91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" t="s">
+        <v>44</v>
+      </c>
+      <c r="B92" t="s">
+        <v>861</v>
+      </c>
+      <c r="C92" t="s">
+        <v>881</v>
+      </c>
+      <c r="AC92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" t="s">
+        <v>842</v>
+      </c>
+      <c r="B93" t="s">
+        <v>861</v>
+      </c>
+      <c r="C93" t="s">
+        <v>888</v>
+      </c>
+      <c r="AC93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
